--- a/data/input_operation/CY/OperationScenario.xlsx
+++ b/data/input_operation/CY/OperationScenario.xlsx
@@ -1240,7 +1240,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -1650,7 +1650,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
@@ -1896,7 +1896,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
@@ -2019,7 +2019,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
@@ -2101,7 +2101,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>151</v>
+        <v>43</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -2265,7 +2265,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
@@ -2306,7 +2306,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="B46" t="n">
         <v>1</v>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>154</v>
+        <v>46</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -2388,7 +2388,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>155</v>
+        <v>47</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>156</v>
+        <v>48</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>157</v>
+        <v>49</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>158</v>
+        <v>50</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
@@ -2552,7 +2552,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>217</v>
+        <v>55</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>218</v>
+        <v>56</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
@@ -2798,7 +2798,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>219</v>
+        <v>57</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>220</v>
+        <v>58</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
@@ -2880,7 +2880,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>221</v>
+        <v>59</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
@@ -2921,7 +2921,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>222</v>
+        <v>60</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
@@ -2962,7 +2962,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>223</v>
+        <v>61</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>224</v>
+        <v>62</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
@@ -3044,7 +3044,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>225</v>
+        <v>63</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>226</v>
+        <v>64</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
@@ -3126,7 +3126,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>227</v>
+        <v>65</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>228</v>
+        <v>66</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
@@ -3208,7 +3208,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>229</v>
+        <v>67</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
@@ -3249,7 +3249,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>230</v>
+        <v>68</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>231</v>
+        <v>69</v>
       </c>
       <c r="B70" t="n">
         <v>1</v>
@@ -3331,7 +3331,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>232</v>
+        <v>70</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>233</v>
+        <v>71</v>
       </c>
       <c r="B72" t="n">
         <v>1</v>
@@ -3413,7 +3413,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>234</v>
+        <v>72</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
@@ -3454,7 +3454,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>289</v>
+        <v>73</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>290</v>
+        <v>74</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>291</v>
+        <v>75</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>292</v>
+        <v>76</v>
       </c>
       <c r="B77" t="n">
         <v>1</v>
@@ -3618,7 +3618,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="B78" t="n">
         <v>1</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="B79" t="n">
         <v>1</v>
@@ -3700,7 +3700,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>295</v>
+        <v>79</v>
       </c>
       <c r="B80" t="n">
         <v>1</v>
@@ -3741,7 +3741,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="B81" t="n">
         <v>1</v>
@@ -3782,7 +3782,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>297</v>
+        <v>81</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>298</v>
+        <v>82</v>
       </c>
       <c r="B83" t="n">
         <v>1</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>299</v>
+        <v>83</v>
       </c>
       <c r="B84" t="n">
         <v>1</v>
@@ -3905,7 +3905,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>300</v>
+        <v>84</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
@@ -3946,7 +3946,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>301</v>
+        <v>85</v>
       </c>
       <c r="B86" t="n">
         <v>1</v>
@@ -3987,7 +3987,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>302</v>
+        <v>86</v>
       </c>
       <c r="B87" t="n">
         <v>1</v>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>303</v>
+        <v>87</v>
       </c>
       <c r="B88" t="n">
         <v>1</v>
@@ -4069,7 +4069,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>304</v>
+        <v>88</v>
       </c>
       <c r="B89" t="n">
         <v>1</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>305</v>
+        <v>89</v>
       </c>
       <c r="B90" t="n">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>306</v>
+        <v>90</v>
       </c>
       <c r="B91" t="n">
         <v>1</v>
@@ -4192,7 +4192,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>361</v>
+        <v>91</v>
       </c>
       <c r="B92" t="n">
         <v>1</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>362</v>
+        <v>92</v>
       </c>
       <c r="B93" t="n">
         <v>1</v>
@@ -4274,7 +4274,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>363</v>
+        <v>93</v>
       </c>
       <c r="B94" t="n">
         <v>1</v>
@@ -4315,7 +4315,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>364</v>
+        <v>94</v>
       </c>
       <c r="B95" t="n">
         <v>1</v>
@@ -4356,7 +4356,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>365</v>
+        <v>95</v>
       </c>
       <c r="B96" t="n">
         <v>1</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>366</v>
+        <v>96</v>
       </c>
       <c r="B97" t="n">
         <v>1</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>367</v>
+        <v>97</v>
       </c>
       <c r="B98" t="n">
         <v>1</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>368</v>
+        <v>98</v>
       </c>
       <c r="B99" t="n">
         <v>1</v>
@@ -4520,7 +4520,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>369</v>
+        <v>99</v>
       </c>
       <c r="B100" t="n">
         <v>1</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>370</v>
+        <v>100</v>
       </c>
       <c r="B101" t="n">
         <v>1</v>
@@ -4602,7 +4602,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>371</v>
+        <v>101</v>
       </c>
       <c r="B102" t="n">
         <v>1</v>
@@ -4643,7 +4643,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>372</v>
+        <v>102</v>
       </c>
       <c r="B103" t="n">
         <v>1</v>
@@ -4684,7 +4684,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>373</v>
+        <v>103</v>
       </c>
       <c r="B104" t="n">
         <v>1</v>
@@ -4725,7 +4725,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>374</v>
+        <v>104</v>
       </c>
       <c r="B105" t="n">
         <v>1</v>
@@ -4766,7 +4766,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>375</v>
+        <v>105</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>376</v>
+        <v>106</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -4848,7 +4848,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>377</v>
+        <v>107</v>
       </c>
       <c r="B108" t="n">
         <v>1</v>
@@ -4889,7 +4889,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>378</v>
+        <v>108</v>
       </c>
       <c r="B109" t="n">
         <v>1</v>
@@ -4930,7 +4930,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>433</v>
+        <v>109</v>
       </c>
       <c r="B110" t="n">
         <v>1</v>
@@ -4971,7 +4971,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>434</v>
+        <v>110</v>
       </c>
       <c r="B111" t="n">
         <v>1</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>435</v>
+        <v>111</v>
       </c>
       <c r="B112" t="n">
         <v>1</v>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>436</v>
+        <v>112</v>
       </c>
       <c r="B113" t="n">
         <v>1</v>
@@ -5094,7 +5094,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>437</v>
+        <v>113</v>
       </c>
       <c r="B114" t="n">
         <v>1</v>
@@ -5135,7 +5135,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>438</v>
+        <v>114</v>
       </c>
       <c r="B115" t="n">
         <v>1</v>
@@ -5176,7 +5176,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>439</v>
+        <v>115</v>
       </c>
       <c r="B116" t="n">
         <v>1</v>
@@ -5217,7 +5217,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>440</v>
+        <v>116</v>
       </c>
       <c r="B117" t="n">
         <v>1</v>
@@ -5258,7 +5258,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>441</v>
+        <v>117</v>
       </c>
       <c r="B118" t="n">
         <v>1</v>
@@ -5299,7 +5299,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>442</v>
+        <v>118</v>
       </c>
       <c r="B119" t="n">
         <v>1</v>
@@ -5340,7 +5340,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>443</v>
+        <v>119</v>
       </c>
       <c r="B120" t="n">
         <v>1</v>
@@ -5381,7 +5381,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>444</v>
+        <v>120</v>
       </c>
       <c r="B121" t="n">
         <v>1</v>
@@ -5422,7 +5422,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>445</v>
+        <v>121</v>
       </c>
       <c r="B122" t="n">
         <v>1</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>446</v>
+        <v>122</v>
       </c>
       <c r="B123" t="n">
         <v>1</v>
@@ -5504,7 +5504,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>447</v>
+        <v>123</v>
       </c>
       <c r="B124" t="n">
         <v>1</v>
@@ -5545,7 +5545,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>448</v>
+        <v>124</v>
       </c>
       <c r="B125" t="n">
         <v>1</v>
@@ -5586,7 +5586,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>449</v>
+        <v>125</v>
       </c>
       <c r="B126" t="n">
         <v>1</v>
@@ -5627,7 +5627,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>450</v>
+        <v>126</v>
       </c>
       <c r="B127" t="n">
         <v>1</v>
@@ -5668,7 +5668,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>505</v>
+        <v>127</v>
       </c>
       <c r="B128" t="n">
         <v>1</v>
@@ -5709,7 +5709,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>506</v>
+        <v>128</v>
       </c>
       <c r="B129" t="n">
         <v>1</v>
@@ -5750,7 +5750,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>507</v>
+        <v>129</v>
       </c>
       <c r="B130" t="n">
         <v>1</v>
@@ -5791,7 +5791,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>508</v>
+        <v>130</v>
       </c>
       <c r="B131" t="n">
         <v>1</v>
@@ -5832,7 +5832,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>509</v>
+        <v>131</v>
       </c>
       <c r="B132" t="n">
         <v>1</v>
@@ -5873,7 +5873,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>510</v>
+        <v>132</v>
       </c>
       <c r="B133" t="n">
         <v>1</v>
@@ -5914,7 +5914,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>511</v>
+        <v>133</v>
       </c>
       <c r="B134" t="n">
         <v>1</v>
@@ -5955,7 +5955,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>512</v>
+        <v>134</v>
       </c>
       <c r="B135" t="n">
         <v>1</v>
@@ -5996,7 +5996,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>513</v>
+        <v>135</v>
       </c>
       <c r="B136" t="n">
         <v>1</v>
@@ -6037,7 +6037,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>514</v>
+        <v>136</v>
       </c>
       <c r="B137" t="n">
         <v>1</v>
@@ -6078,7 +6078,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>515</v>
+        <v>137</v>
       </c>
       <c r="B138" t="n">
         <v>1</v>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>516</v>
+        <v>138</v>
       </c>
       <c r="B139" t="n">
         <v>1</v>
@@ -6160,7 +6160,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>517</v>
+        <v>139</v>
       </c>
       <c r="B140" t="n">
         <v>1</v>
@@ -6201,7 +6201,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>518</v>
+        <v>140</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>
@@ -6242,7 +6242,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>519</v>
+        <v>141</v>
       </c>
       <c r="B142" t="n">
         <v>1</v>
@@ -6283,7 +6283,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>520</v>
+        <v>142</v>
       </c>
       <c r="B143" t="n">
         <v>1</v>
@@ -6324,7 +6324,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>521</v>
+        <v>143</v>
       </c>
       <c r="B144" t="n">
         <v>1</v>
@@ -6365,7 +6365,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>522</v>
+        <v>144</v>
       </c>
       <c r="B145" t="n">
         <v>1</v>
@@ -6406,7 +6406,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>577</v>
+        <v>145</v>
       </c>
       <c r="B146" t="n">
         <v>1</v>
@@ -6447,7 +6447,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>578</v>
+        <v>146</v>
       </c>
       <c r="B147" t="n">
         <v>1</v>
@@ -6488,7 +6488,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>579</v>
+        <v>147</v>
       </c>
       <c r="B148" t="n">
         <v>1</v>
@@ -6529,7 +6529,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>580</v>
+        <v>148</v>
       </c>
       <c r="B149" t="n">
         <v>1</v>
@@ -6570,7 +6570,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>581</v>
+        <v>149</v>
       </c>
       <c r="B150" t="n">
         <v>1</v>
@@ -6611,7 +6611,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>582</v>
+        <v>150</v>
       </c>
       <c r="B151" t="n">
         <v>1</v>
@@ -6652,7 +6652,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>583</v>
+        <v>151</v>
       </c>
       <c r="B152" t="n">
         <v>1</v>
@@ -6693,7 +6693,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>584</v>
+        <v>152</v>
       </c>
       <c r="B153" t="n">
         <v>1</v>
@@ -6734,7 +6734,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>585</v>
+        <v>153</v>
       </c>
       <c r="B154" t="n">
         <v>1</v>
@@ -6775,7 +6775,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>586</v>
+        <v>154</v>
       </c>
       <c r="B155" t="n">
         <v>1</v>
@@ -6816,7 +6816,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>587</v>
+        <v>155</v>
       </c>
       <c r="B156" t="n">
         <v>1</v>
@@ -6857,7 +6857,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>588</v>
+        <v>156</v>
       </c>
       <c r="B157" t="n">
         <v>1</v>
@@ -6898,7 +6898,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>589</v>
+        <v>157</v>
       </c>
       <c r="B158" t="n">
         <v>1</v>
@@ -6939,7 +6939,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>590</v>
+        <v>158</v>
       </c>
       <c r="B159" t="n">
         <v>1</v>
@@ -6980,7 +6980,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>591</v>
+        <v>159</v>
       </c>
       <c r="B160" t="n">
         <v>1</v>
@@ -7021,7 +7021,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>592</v>
+        <v>160</v>
       </c>
       <c r="B161" t="n">
         <v>1</v>
@@ -7062,7 +7062,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>593</v>
+        <v>161</v>
       </c>
       <c r="B162" t="n">
         <v>1</v>
@@ -7103,7 +7103,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>594</v>
+        <v>162</v>
       </c>
       <c r="B163" t="n">
         <v>1</v>
@@ -7144,7 +7144,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>649</v>
+        <v>163</v>
       </c>
       <c r="B164" t="n">
         <v>1</v>
@@ -7185,7 +7185,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>650</v>
+        <v>164</v>
       </c>
       <c r="B165" t="n">
         <v>1</v>
@@ -7226,7 +7226,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>651</v>
+        <v>165</v>
       </c>
       <c r="B166" t="n">
         <v>1</v>
@@ -7267,7 +7267,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>652</v>
+        <v>166</v>
       </c>
       <c r="B167" t="n">
         <v>1</v>
@@ -7308,7 +7308,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>653</v>
+        <v>167</v>
       </c>
       <c r="B168" t="n">
         <v>1</v>
@@ -7349,7 +7349,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>654</v>
+        <v>168</v>
       </c>
       <c r="B169" t="n">
         <v>1</v>
@@ -7390,7 +7390,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>655</v>
+        <v>169</v>
       </c>
       <c r="B170" t="n">
         <v>1</v>
@@ -7431,7 +7431,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>656</v>
+        <v>170</v>
       </c>
       <c r="B171" t="n">
         <v>1</v>
@@ -7472,7 +7472,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>657</v>
+        <v>171</v>
       </c>
       <c r="B172" t="n">
         <v>1</v>
@@ -7513,7 +7513,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>658</v>
+        <v>172</v>
       </c>
       <c r="B173" t="n">
         <v>1</v>
@@ -7554,7 +7554,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>659</v>
+        <v>173</v>
       </c>
       <c r="B174" t="n">
         <v>1</v>
@@ -7595,7 +7595,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>660</v>
+        <v>174</v>
       </c>
       <c r="B175" t="n">
         <v>1</v>
@@ -7636,7 +7636,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>661</v>
+        <v>175</v>
       </c>
       <c r="B176" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>662</v>
+        <v>176</v>
       </c>
       <c r="B177" t="n">
         <v>1</v>
@@ -7718,7 +7718,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>663</v>
+        <v>177</v>
       </c>
       <c r="B178" t="n">
         <v>1</v>
@@ -7759,7 +7759,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>664</v>
+        <v>178</v>
       </c>
       <c r="B179" t="n">
         <v>1</v>
@@ -7800,7 +7800,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>665</v>
+        <v>179</v>
       </c>
       <c r="B180" t="n">
         <v>1</v>
@@ -7841,7 +7841,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>666</v>
+        <v>180</v>
       </c>
       <c r="B181" t="n">
         <v>1</v>
@@ -7882,7 +7882,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>721</v>
+        <v>181</v>
       </c>
       <c r="B182" t="n">
         <v>1</v>
@@ -7923,7 +7923,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>722</v>
+        <v>182</v>
       </c>
       <c r="B183" t="n">
         <v>1</v>
@@ -7964,7 +7964,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>723</v>
+        <v>183</v>
       </c>
       <c r="B184" t="n">
         <v>1</v>
@@ -8005,7 +8005,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>724</v>
+        <v>184</v>
       </c>
       <c r="B185" t="n">
         <v>1</v>
@@ -8046,7 +8046,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>725</v>
+        <v>185</v>
       </c>
       <c r="B186" t="n">
         <v>1</v>
@@ -8087,7 +8087,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>726</v>
+        <v>186</v>
       </c>
       <c r="B187" t="n">
         <v>1</v>
@@ -8128,7 +8128,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>727</v>
+        <v>187</v>
       </c>
       <c r="B188" t="n">
         <v>1</v>
@@ -8169,7 +8169,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>728</v>
+        <v>188</v>
       </c>
       <c r="B189" t="n">
         <v>1</v>
@@ -8210,7 +8210,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>729</v>
+        <v>189</v>
       </c>
       <c r="B190" t="n">
         <v>1</v>
@@ -8251,7 +8251,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>730</v>
+        <v>190</v>
       </c>
       <c r="B191" t="n">
         <v>1</v>
@@ -8292,7 +8292,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>731</v>
+        <v>191</v>
       </c>
       <c r="B192" t="n">
         <v>1</v>
@@ -8333,7 +8333,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>732</v>
+        <v>192</v>
       </c>
       <c r="B193" t="n">
         <v>1</v>
@@ -8374,7 +8374,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>733</v>
+        <v>193</v>
       </c>
       <c r="B194" t="n">
         <v>1</v>
@@ -8415,7 +8415,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>734</v>
+        <v>194</v>
       </c>
       <c r="B195" t="n">
         <v>1</v>
@@ -8456,7 +8456,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>735</v>
+        <v>195</v>
       </c>
       <c r="B196" t="n">
         <v>1</v>
@@ -8497,7 +8497,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>736</v>
+        <v>196</v>
       </c>
       <c r="B197" t="n">
         <v>1</v>
@@ -8538,7 +8538,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>737</v>
+        <v>197</v>
       </c>
       <c r="B198" t="n">
         <v>1</v>
@@ -8579,7 +8579,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>738</v>
+        <v>198</v>
       </c>
       <c r="B199" t="n">
         <v>1</v>
@@ -8620,7 +8620,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>793</v>
+        <v>199</v>
       </c>
       <c r="B200" t="n">
         <v>1</v>
@@ -8661,7 +8661,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>794</v>
+        <v>200</v>
       </c>
       <c r="B201" t="n">
         <v>1</v>
@@ -8702,7 +8702,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>795</v>
+        <v>201</v>
       </c>
       <c r="B202" t="n">
         <v>1</v>
@@ -8743,7 +8743,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>796</v>
+        <v>202</v>
       </c>
       <c r="B203" t="n">
         <v>1</v>
@@ -8784,7 +8784,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>797</v>
+        <v>203</v>
       </c>
       <c r="B204" t="n">
         <v>1</v>
@@ -8825,7 +8825,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>798</v>
+        <v>204</v>
       </c>
       <c r="B205" t="n">
         <v>1</v>
@@ -8866,7 +8866,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>799</v>
+        <v>205</v>
       </c>
       <c r="B206" t="n">
         <v>1</v>
@@ -8907,7 +8907,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>800</v>
+        <v>206</v>
       </c>
       <c r="B207" t="n">
         <v>1</v>
@@ -8948,7 +8948,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>801</v>
+        <v>207</v>
       </c>
       <c r="B208" t="n">
         <v>1</v>
@@ -8989,7 +8989,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>802</v>
+        <v>208</v>
       </c>
       <c r="B209" t="n">
         <v>1</v>
@@ -9030,7 +9030,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>803</v>
+        <v>209</v>
       </c>
       <c r="B210" t="n">
         <v>1</v>
@@ -9071,7 +9071,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>804</v>
+        <v>210</v>
       </c>
       <c r="B211" t="n">
         <v>1</v>
@@ -9112,7 +9112,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>805</v>
+        <v>211</v>
       </c>
       <c r="B212" t="n">
         <v>1</v>
@@ -9153,7 +9153,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>806</v>
+        <v>212</v>
       </c>
       <c r="B213" t="n">
         <v>1</v>
@@ -9194,7 +9194,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>807</v>
+        <v>213</v>
       </c>
       <c r="B214" t="n">
         <v>1</v>
@@ -9235,7 +9235,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>808</v>
+        <v>214</v>
       </c>
       <c r="B215" t="n">
         <v>1</v>
@@ -9276,7 +9276,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>809</v>
+        <v>215</v>
       </c>
       <c r="B216" t="n">
         <v>1</v>
@@ -9317,7 +9317,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>810</v>
+        <v>216</v>
       </c>
       <c r="B217" t="n">
         <v>1</v>
@@ -9358,7 +9358,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>865</v>
+        <v>217</v>
       </c>
       <c r="B218" t="n">
         <v>1</v>
@@ -9399,7 +9399,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>866</v>
+        <v>218</v>
       </c>
       <c r="B219" t="n">
         <v>1</v>
@@ -9440,7 +9440,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>867</v>
+        <v>219</v>
       </c>
       <c r="B220" t="n">
         <v>1</v>
@@ -9481,7 +9481,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>868</v>
+        <v>220</v>
       </c>
       <c r="B221" t="n">
         <v>1</v>
@@ -9522,7 +9522,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>869</v>
+        <v>221</v>
       </c>
       <c r="B222" t="n">
         <v>1</v>
@@ -9563,7 +9563,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>870</v>
+        <v>222</v>
       </c>
       <c r="B223" t="n">
         <v>1</v>
@@ -9604,7 +9604,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>871</v>
+        <v>223</v>
       </c>
       <c r="B224" t="n">
         <v>1</v>
@@ -9645,7 +9645,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>872</v>
+        <v>224</v>
       </c>
       <c r="B225" t="n">
         <v>1</v>
@@ -9686,7 +9686,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>873</v>
+        <v>225</v>
       </c>
       <c r="B226" t="n">
         <v>1</v>
@@ -9727,7 +9727,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>874</v>
+        <v>226</v>
       </c>
       <c r="B227" t="n">
         <v>1</v>
@@ -9768,7 +9768,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>875</v>
+        <v>227</v>
       </c>
       <c r="B228" t="n">
         <v>1</v>
@@ -9809,7 +9809,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>876</v>
+        <v>228</v>
       </c>
       <c r="B229" t="n">
         <v>1</v>
@@ -9850,7 +9850,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>877</v>
+        <v>229</v>
       </c>
       <c r="B230" t="n">
         <v>1</v>
@@ -9891,7 +9891,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>878</v>
+        <v>230</v>
       </c>
       <c r="B231" t="n">
         <v>1</v>
@@ -9932,7 +9932,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>879</v>
+        <v>231</v>
       </c>
       <c r="B232" t="n">
         <v>1</v>
@@ -9973,7 +9973,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>880</v>
+        <v>232</v>
       </c>
       <c r="B233" t="n">
         <v>1</v>
@@ -10014,7 +10014,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>881</v>
+        <v>233</v>
       </c>
       <c r="B234" t="n">
         <v>1</v>
@@ -10055,7 +10055,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>882</v>
+        <v>234</v>
       </c>
       <c r="B235" t="n">
         <v>1</v>
@@ -10096,7 +10096,7 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>937</v>
+        <v>235</v>
       </c>
       <c r="B236" t="n">
         <v>1</v>
@@ -10137,7 +10137,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>938</v>
+        <v>236</v>
       </c>
       <c r="B237" t="n">
         <v>1</v>
@@ -10178,7 +10178,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>939</v>
+        <v>237</v>
       </c>
       <c r="B238" t="n">
         <v>1</v>
@@ -10219,7 +10219,7 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>940</v>
+        <v>238</v>
       </c>
       <c r="B239" t="n">
         <v>1</v>
@@ -10260,7 +10260,7 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>941</v>
+        <v>239</v>
       </c>
       <c r="B240" t="n">
         <v>1</v>
@@ -10301,7 +10301,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>942</v>
+        <v>240</v>
       </c>
       <c r="B241" t="n">
         <v>1</v>
@@ -10342,7 +10342,7 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>943</v>
+        <v>241</v>
       </c>
       <c r="B242" t="n">
         <v>1</v>
@@ -10383,7 +10383,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>944</v>
+        <v>242</v>
       </c>
       <c r="B243" t="n">
         <v>1</v>
@@ -10424,7 +10424,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>945</v>
+        <v>243</v>
       </c>
       <c r="B244" t="n">
         <v>1</v>
@@ -10465,7 +10465,7 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>946</v>
+        <v>244</v>
       </c>
       <c r="B245" t="n">
         <v>1</v>
@@ -10506,7 +10506,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>947</v>
+        <v>245</v>
       </c>
       <c r="B246" t="n">
         <v>1</v>
@@ -10547,7 +10547,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>948</v>
+        <v>246</v>
       </c>
       <c r="B247" t="n">
         <v>1</v>
@@ -10588,7 +10588,7 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>949</v>
+        <v>247</v>
       </c>
       <c r="B248" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>950</v>
+        <v>248</v>
       </c>
       <c r="B249" t="n">
         <v>1</v>
@@ -10670,7 +10670,7 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>951</v>
+        <v>249</v>
       </c>
       <c r="B250" t="n">
         <v>1</v>
@@ -10711,7 +10711,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>952</v>
+        <v>250</v>
       </c>
       <c r="B251" t="n">
         <v>1</v>
@@ -10752,7 +10752,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>953</v>
+        <v>251</v>
       </c>
       <c r="B252" t="n">
         <v>1</v>
@@ -10793,7 +10793,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>954</v>
+        <v>252</v>
       </c>
       <c r="B253" t="n">
         <v>1</v>
@@ -10834,7 +10834,7 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>1009</v>
+        <v>253</v>
       </c>
       <c r="B254" t="n">
         <v>1</v>
@@ -10875,7 +10875,7 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>1010</v>
+        <v>254</v>
       </c>
       <c r="B255" t="n">
         <v>1</v>
@@ -10916,7 +10916,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>1011</v>
+        <v>255</v>
       </c>
       <c r="B256" t="n">
         <v>1</v>
@@ -10957,7 +10957,7 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1012</v>
+        <v>256</v>
       </c>
       <c r="B257" t="n">
         <v>1</v>
@@ -10998,7 +10998,7 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>1013</v>
+        <v>257</v>
       </c>
       <c r="B258" t="n">
         <v>1</v>
@@ -11039,7 +11039,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>1014</v>
+        <v>258</v>
       </c>
       <c r="B259" t="n">
         <v>1</v>
@@ -11080,7 +11080,7 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>1015</v>
+        <v>259</v>
       </c>
       <c r="B260" t="n">
         <v>1</v>
@@ -11121,7 +11121,7 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>1016</v>
+        <v>260</v>
       </c>
       <c r="B261" t="n">
         <v>1</v>
@@ -11162,7 +11162,7 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>1017</v>
+        <v>261</v>
       </c>
       <c r="B262" t="n">
         <v>1</v>
@@ -11203,7 +11203,7 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>1018</v>
+        <v>262</v>
       </c>
       <c r="B263" t="n">
         <v>1</v>
@@ -11244,7 +11244,7 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>1019</v>
+        <v>263</v>
       </c>
       <c r="B264" t="n">
         <v>1</v>
@@ -11285,7 +11285,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>1020</v>
+        <v>264</v>
       </c>
       <c r="B265" t="n">
         <v>1</v>
@@ -11326,7 +11326,7 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>1021</v>
+        <v>265</v>
       </c>
       <c r="B266" t="n">
         <v>1</v>
@@ -11367,7 +11367,7 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>1022</v>
+        <v>266</v>
       </c>
       <c r="B267" t="n">
         <v>1</v>
@@ -11408,7 +11408,7 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1023</v>
+        <v>267</v>
       </c>
       <c r="B268" t="n">
         <v>1</v>
@@ -11449,7 +11449,7 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>1024</v>
+        <v>268</v>
       </c>
       <c r="B269" t="n">
         <v>1</v>
@@ -11490,7 +11490,7 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>1025</v>
+        <v>269</v>
       </c>
       <c r="B270" t="n">
         <v>1</v>
@@ -11531,7 +11531,7 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>1026</v>
+        <v>270</v>
       </c>
       <c r="B271" t="n">
         <v>1</v>
@@ -11572,7 +11572,7 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>1081</v>
+        <v>271</v>
       </c>
       <c r="B272" t="n">
         <v>1</v>
@@ -11613,7 +11613,7 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>1082</v>
+        <v>272</v>
       </c>
       <c r="B273" t="n">
         <v>1</v>
@@ -11654,7 +11654,7 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>1083</v>
+        <v>273</v>
       </c>
       <c r="B274" t="n">
         <v>1</v>
@@ -11695,7 +11695,7 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>1084</v>
+        <v>274</v>
       </c>
       <c r="B275" t="n">
         <v>1</v>
@@ -11736,7 +11736,7 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>1085</v>
+        <v>275</v>
       </c>
       <c r="B276" t="n">
         <v>1</v>
@@ -11777,7 +11777,7 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>1086</v>
+        <v>276</v>
       </c>
       <c r="B277" t="n">
         <v>1</v>
@@ -11818,7 +11818,7 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>1087</v>
+        <v>277</v>
       </c>
       <c r="B278" t="n">
         <v>1</v>
@@ -11859,7 +11859,7 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>1088</v>
+        <v>278</v>
       </c>
       <c r="B279" t="n">
         <v>1</v>
@@ -11900,7 +11900,7 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>1089</v>
+        <v>279</v>
       </c>
       <c r="B280" t="n">
         <v>1</v>
@@ -11941,7 +11941,7 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>1090</v>
+        <v>280</v>
       </c>
       <c r="B281" t="n">
         <v>1</v>
@@ -11982,7 +11982,7 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>1091</v>
+        <v>281</v>
       </c>
       <c r="B282" t="n">
         <v>1</v>
@@ -12023,7 +12023,7 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>1092</v>
+        <v>282</v>
       </c>
       <c r="B283" t="n">
         <v>1</v>
@@ -12064,7 +12064,7 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>1093</v>
+        <v>283</v>
       </c>
       <c r="B284" t="n">
         <v>1</v>
@@ -12105,7 +12105,7 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>1094</v>
+        <v>284</v>
       </c>
       <c r="B285" t="n">
         <v>1</v>
@@ -12146,7 +12146,7 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>1095</v>
+        <v>285</v>
       </c>
       <c r="B286" t="n">
         <v>1</v>
@@ -12187,7 +12187,7 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>1096</v>
+        <v>286</v>
       </c>
       <c r="B287" t="n">
         <v>1</v>
@@ -12228,7 +12228,7 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>1097</v>
+        <v>287</v>
       </c>
       <c r="B288" t="n">
         <v>1</v>
@@ -12269,7 +12269,7 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>1098</v>
+        <v>288</v>
       </c>
       <c r="B289" t="n">
         <v>1</v>
@@ -12310,7 +12310,7 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>1153</v>
+        <v>289</v>
       </c>
       <c r="B290" t="n">
         <v>1</v>
@@ -12351,7 +12351,7 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>1154</v>
+        <v>290</v>
       </c>
       <c r="B291" t="n">
         <v>1</v>
@@ -12392,7 +12392,7 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>1155</v>
+        <v>291</v>
       </c>
       <c r="B292" t="n">
         <v>1</v>
@@ -12433,7 +12433,7 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>1156</v>
+        <v>292</v>
       </c>
       <c r="B293" t="n">
         <v>1</v>
@@ -12474,7 +12474,7 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>1157</v>
+        <v>293</v>
       </c>
       <c r="B294" t="n">
         <v>1</v>
@@ -12515,7 +12515,7 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>1158</v>
+        <v>294</v>
       </c>
       <c r="B295" t="n">
         <v>1</v>
@@ -12556,7 +12556,7 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>1159</v>
+        <v>295</v>
       </c>
       <c r="B296" t="n">
         <v>1</v>
@@ -12597,7 +12597,7 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>1160</v>
+        <v>296</v>
       </c>
       <c r="B297" t="n">
         <v>1</v>
@@ -12638,7 +12638,7 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>1161</v>
+        <v>297</v>
       </c>
       <c r="B298" t="n">
         <v>1</v>
@@ -12679,7 +12679,7 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>1162</v>
+        <v>298</v>
       </c>
       <c r="B299" t="n">
         <v>1</v>
@@ -12720,7 +12720,7 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>1163</v>
+        <v>299</v>
       </c>
       <c r="B300" t="n">
         <v>1</v>
@@ -12761,7 +12761,7 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>1164</v>
+        <v>300</v>
       </c>
       <c r="B301" t="n">
         <v>1</v>
@@ -12802,7 +12802,7 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>1165</v>
+        <v>301</v>
       </c>
       <c r="B302" t="n">
         <v>1</v>
@@ -12843,7 +12843,7 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>1166</v>
+        <v>302</v>
       </c>
       <c r="B303" t="n">
         <v>1</v>
@@ -12884,7 +12884,7 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>1167</v>
+        <v>303</v>
       </c>
       <c r="B304" t="n">
         <v>1</v>
@@ -12925,7 +12925,7 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>1168</v>
+        <v>304</v>
       </c>
       <c r="B305" t="n">
         <v>1</v>
@@ -12966,7 +12966,7 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>1169</v>
+        <v>305</v>
       </c>
       <c r="B306" t="n">
         <v>1</v>
@@ -13007,7 +13007,7 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>1170</v>
+        <v>306</v>
       </c>
       <c r="B307" t="n">
         <v>1</v>
@@ -13048,7 +13048,7 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>1225</v>
+        <v>307</v>
       </c>
       <c r="B308" t="n">
         <v>1</v>
@@ -13089,7 +13089,7 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>1226</v>
+        <v>308</v>
       </c>
       <c r="B309" t="n">
         <v>1</v>
@@ -13130,7 +13130,7 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>1227</v>
+        <v>309</v>
       </c>
       <c r="B310" t="n">
         <v>1</v>
@@ -13171,7 +13171,7 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>1228</v>
+        <v>310</v>
       </c>
       <c r="B311" t="n">
         <v>1</v>
@@ -13212,7 +13212,7 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>1229</v>
+        <v>311</v>
       </c>
       <c r="B312" t="n">
         <v>1</v>
@@ -13253,7 +13253,7 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>1230</v>
+        <v>312</v>
       </c>
       <c r="B313" t="n">
         <v>1</v>
@@ -13294,7 +13294,7 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>1231</v>
+        <v>313</v>
       </c>
       <c r="B314" t="n">
         <v>1</v>
@@ -13335,7 +13335,7 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>1232</v>
+        <v>314</v>
       </c>
       <c r="B315" t="n">
         <v>1</v>
@@ -13376,7 +13376,7 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>1233</v>
+        <v>315</v>
       </c>
       <c r="B316" t="n">
         <v>1</v>
@@ -13417,7 +13417,7 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>1234</v>
+        <v>316</v>
       </c>
       <c r="B317" t="n">
         <v>1</v>
@@ -13458,7 +13458,7 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>1235</v>
+        <v>317</v>
       </c>
       <c r="B318" t="n">
         <v>1</v>
@@ -13499,7 +13499,7 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>1236</v>
+        <v>318</v>
       </c>
       <c r="B319" t="n">
         <v>1</v>
@@ -13540,7 +13540,7 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>1237</v>
+        <v>319</v>
       </c>
       <c r="B320" t="n">
         <v>1</v>
@@ -13581,7 +13581,7 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>1238</v>
+        <v>320</v>
       </c>
       <c r="B321" t="n">
         <v>1</v>
@@ -13622,7 +13622,7 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>1239</v>
+        <v>321</v>
       </c>
       <c r="B322" t="n">
         <v>1</v>
@@ -13663,7 +13663,7 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>1240</v>
+        <v>322</v>
       </c>
       <c r="B323" t="n">
         <v>1</v>
@@ -13704,7 +13704,7 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>1241</v>
+        <v>323</v>
       </c>
       <c r="B324" t="n">
         <v>1</v>
@@ -13745,7 +13745,7 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>1242</v>
+        <v>324</v>
       </c>
       <c r="B325" t="n">
         <v>1</v>
@@ -13786,7 +13786,7 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>1297</v>
+        <v>325</v>
       </c>
       <c r="B326" t="n">
         <v>1</v>
@@ -13827,7 +13827,7 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>1298</v>
+        <v>326</v>
       </c>
       <c r="B327" t="n">
         <v>1</v>
@@ -13868,7 +13868,7 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>1299</v>
+        <v>327</v>
       </c>
       <c r="B328" t="n">
         <v>1</v>
@@ -13909,7 +13909,7 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>1300</v>
+        <v>328</v>
       </c>
       <c r="B329" t="n">
         <v>1</v>
@@ -13950,7 +13950,7 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>1301</v>
+        <v>329</v>
       </c>
       <c r="B330" t="n">
         <v>1</v>
@@ -13991,7 +13991,7 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>1302</v>
+        <v>330</v>
       </c>
       <c r="B331" t="n">
         <v>1</v>
@@ -14032,7 +14032,7 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>1303</v>
+        <v>331</v>
       </c>
       <c r="B332" t="n">
         <v>1</v>
@@ -14073,7 +14073,7 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>1304</v>
+        <v>332</v>
       </c>
       <c r="B333" t="n">
         <v>1</v>
@@ -14114,7 +14114,7 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>1305</v>
+        <v>333</v>
       </c>
       <c r="B334" t="n">
         <v>1</v>
@@ -14155,7 +14155,7 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>1306</v>
+        <v>334</v>
       </c>
       <c r="B335" t="n">
         <v>1</v>
@@ -14196,7 +14196,7 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>1307</v>
+        <v>335</v>
       </c>
       <c r="B336" t="n">
         <v>1</v>
@@ -14237,7 +14237,7 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>1308</v>
+        <v>336</v>
       </c>
       <c r="B337" t="n">
         <v>1</v>
@@ -14278,7 +14278,7 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>1309</v>
+        <v>337</v>
       </c>
       <c r="B338" t="n">
         <v>1</v>
@@ -14319,7 +14319,7 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>1310</v>
+        <v>338</v>
       </c>
       <c r="B339" t="n">
         <v>1</v>
@@ -14360,7 +14360,7 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>1311</v>
+        <v>339</v>
       </c>
       <c r="B340" t="n">
         <v>1</v>
@@ -14401,7 +14401,7 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>1312</v>
+        <v>340</v>
       </c>
       <c r="B341" t="n">
         <v>1</v>
@@ -14442,7 +14442,7 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>1313</v>
+        <v>341</v>
       </c>
       <c r="B342" t="n">
         <v>1</v>
@@ -14483,7 +14483,7 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>1314</v>
+        <v>342</v>
       </c>
       <c r="B343" t="n">
         <v>1</v>
@@ -14524,7 +14524,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>1369</v>
+        <v>343</v>
       </c>
       <c r="B344" t="n">
         <v>1</v>
@@ -14565,7 +14565,7 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>1370</v>
+        <v>344</v>
       </c>
       <c r="B345" t="n">
         <v>1</v>
@@ -14606,7 +14606,7 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>1371</v>
+        <v>345</v>
       </c>
       <c r="B346" t="n">
         <v>1</v>
@@ -14647,7 +14647,7 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>1372</v>
+        <v>346</v>
       </c>
       <c r="B347" t="n">
         <v>1</v>
@@ -14688,7 +14688,7 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>1373</v>
+        <v>347</v>
       </c>
       <c r="B348" t="n">
         <v>1</v>
@@ -14729,7 +14729,7 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>1374</v>
+        <v>348</v>
       </c>
       <c r="B349" t="n">
         <v>1</v>
@@ -14770,7 +14770,7 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>1375</v>
+        <v>349</v>
       </c>
       <c r="B350" t="n">
         <v>1</v>
@@ -14811,7 +14811,7 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>1376</v>
+        <v>350</v>
       </c>
       <c r="B351" t="n">
         <v>1</v>
@@ -14852,7 +14852,7 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>1377</v>
+        <v>351</v>
       </c>
       <c r="B352" t="n">
         <v>1</v>
@@ -14893,7 +14893,7 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>1378</v>
+        <v>352</v>
       </c>
       <c r="B353" t="n">
         <v>1</v>
@@ -14934,7 +14934,7 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>1379</v>
+        <v>353</v>
       </c>
       <c r="B354" t="n">
         <v>1</v>
@@ -14975,7 +14975,7 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>1380</v>
+        <v>354</v>
       </c>
       <c r="B355" t="n">
         <v>1</v>
@@ -15016,7 +15016,7 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>1381</v>
+        <v>355</v>
       </c>
       <c r="B356" t="n">
         <v>1</v>
@@ -15057,7 +15057,7 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>1382</v>
+        <v>356</v>
       </c>
       <c r="B357" t="n">
         <v>1</v>
@@ -15098,7 +15098,7 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>1383</v>
+        <v>357</v>
       </c>
       <c r="B358" t="n">
         <v>1</v>
@@ -15139,7 +15139,7 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>1384</v>
+        <v>358</v>
       </c>
       <c r="B359" t="n">
         <v>1</v>
@@ -15180,7 +15180,7 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>1385</v>
+        <v>359</v>
       </c>
       <c r="B360" t="n">
         <v>1</v>
@@ -15221,7 +15221,7 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>1386</v>
+        <v>360</v>
       </c>
       <c r="B361" t="n">
         <v>1</v>
@@ -15262,7 +15262,7 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>1441</v>
+        <v>361</v>
       </c>
       <c r="B362" t="n">
         <v>1</v>
@@ -15303,7 +15303,7 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>1442</v>
+        <v>362</v>
       </c>
       <c r="B363" t="n">
         <v>1</v>
@@ -15344,7 +15344,7 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>1443</v>
+        <v>363</v>
       </c>
       <c r="B364" t="n">
         <v>1</v>
@@ -15385,7 +15385,7 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>1444</v>
+        <v>364</v>
       </c>
       <c r="B365" t="n">
         <v>1</v>
@@ -15426,7 +15426,7 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>1445</v>
+        <v>365</v>
       </c>
       <c r="B366" t="n">
         <v>1</v>
@@ -15467,7 +15467,7 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>1446</v>
+        <v>366</v>
       </c>
       <c r="B367" t="n">
         <v>1</v>
@@ -15508,7 +15508,7 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>1447</v>
+        <v>367</v>
       </c>
       <c r="B368" t="n">
         <v>1</v>
@@ -15549,7 +15549,7 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>1448</v>
+        <v>368</v>
       </c>
       <c r="B369" t="n">
         <v>1</v>
@@ -15590,7 +15590,7 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>1449</v>
+        <v>369</v>
       </c>
       <c r="B370" t="n">
         <v>1</v>
@@ -15631,7 +15631,7 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>1450</v>
+        <v>370</v>
       </c>
       <c r="B371" t="n">
         <v>1</v>
@@ -15672,7 +15672,7 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>1451</v>
+        <v>371</v>
       </c>
       <c r="B372" t="n">
         <v>1</v>
@@ -15713,7 +15713,7 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>1452</v>
+        <v>372</v>
       </c>
       <c r="B373" t="n">
         <v>1</v>
@@ -15754,7 +15754,7 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>1453</v>
+        <v>373</v>
       </c>
       <c r="B374" t="n">
         <v>1</v>
@@ -15795,7 +15795,7 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>1454</v>
+        <v>374</v>
       </c>
       <c r="B375" t="n">
         <v>1</v>
@@ -15836,7 +15836,7 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>1455</v>
+        <v>375</v>
       </c>
       <c r="B376" t="n">
         <v>1</v>
@@ -15877,7 +15877,7 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>1456</v>
+        <v>376</v>
       </c>
       <c r="B377" t="n">
         <v>1</v>
@@ -15918,7 +15918,7 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>1457</v>
+        <v>377</v>
       </c>
       <c r="B378" t="n">
         <v>1</v>
@@ -15959,7 +15959,7 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>1458</v>
+        <v>378</v>
       </c>
       <c r="B379" t="n">
         <v>1</v>
@@ -16000,7 +16000,7 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>1513</v>
+        <v>379</v>
       </c>
       <c r="B380" t="n">
         <v>1</v>
@@ -16041,7 +16041,7 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>1514</v>
+        <v>380</v>
       </c>
       <c r="B381" t="n">
         <v>1</v>
@@ -16082,7 +16082,7 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>1515</v>
+        <v>381</v>
       </c>
       <c r="B382" t="n">
         <v>1</v>
@@ -16123,7 +16123,7 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>1516</v>
+        <v>382</v>
       </c>
       <c r="B383" t="n">
         <v>1</v>
@@ -16164,7 +16164,7 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>1517</v>
+        <v>383</v>
       </c>
       <c r="B384" t="n">
         <v>1</v>
@@ -16205,7 +16205,7 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>1518</v>
+        <v>384</v>
       </c>
       <c r="B385" t="n">
         <v>1</v>
@@ -16246,7 +16246,7 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>1519</v>
+        <v>385</v>
       </c>
       <c r="B386" t="n">
         <v>1</v>
@@ -16287,7 +16287,7 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>1520</v>
+        <v>386</v>
       </c>
       <c r="B387" t="n">
         <v>1</v>
@@ -16328,7 +16328,7 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>1521</v>
+        <v>387</v>
       </c>
       <c r="B388" t="n">
         <v>1</v>
@@ -16369,7 +16369,7 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>1522</v>
+        <v>388</v>
       </c>
       <c r="B389" t="n">
         <v>1</v>
@@ -16410,7 +16410,7 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>1523</v>
+        <v>389</v>
       </c>
       <c r="B390" t="n">
         <v>1</v>
@@ -16451,7 +16451,7 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>1524</v>
+        <v>390</v>
       </c>
       <c r="B391" t="n">
         <v>1</v>
@@ -16492,7 +16492,7 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>1525</v>
+        <v>391</v>
       </c>
       <c r="B392" t="n">
         <v>1</v>
@@ -16533,7 +16533,7 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>1526</v>
+        <v>392</v>
       </c>
       <c r="B393" t="n">
         <v>1</v>
@@ -16574,7 +16574,7 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>1527</v>
+        <v>393</v>
       </c>
       <c r="B394" t="n">
         <v>1</v>
@@ -16615,7 +16615,7 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>1528</v>
+        <v>394</v>
       </c>
       <c r="B395" t="n">
         <v>1</v>
@@ -16656,7 +16656,7 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>1529</v>
+        <v>395</v>
       </c>
       <c r="B396" t="n">
         <v>1</v>
@@ -16697,7 +16697,7 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>1530</v>
+        <v>396</v>
       </c>
       <c r="B397" t="n">
         <v>1</v>
@@ -16738,7 +16738,7 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>1585</v>
+        <v>397</v>
       </c>
       <c r="B398" t="n">
         <v>1</v>
@@ -16779,7 +16779,7 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>1586</v>
+        <v>398</v>
       </c>
       <c r="B399" t="n">
         <v>1</v>
@@ -16820,7 +16820,7 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>1587</v>
+        <v>399</v>
       </c>
       <c r="B400" t="n">
         <v>1</v>
@@ -16861,7 +16861,7 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>1588</v>
+        <v>400</v>
       </c>
       <c r="B401" t="n">
         <v>1</v>
@@ -16902,7 +16902,7 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>1589</v>
+        <v>401</v>
       </c>
       <c r="B402" t="n">
         <v>1</v>
@@ -16943,7 +16943,7 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>1590</v>
+        <v>402</v>
       </c>
       <c r="B403" t="n">
         <v>1</v>
@@ -16984,7 +16984,7 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>1591</v>
+        <v>403</v>
       </c>
       <c r="B404" t="n">
         <v>1</v>
@@ -17025,7 +17025,7 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>1592</v>
+        <v>404</v>
       </c>
       <c r="B405" t="n">
         <v>1</v>
@@ -17066,7 +17066,7 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>1593</v>
+        <v>405</v>
       </c>
       <c r="B406" t="n">
         <v>1</v>
@@ -17107,7 +17107,7 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>1594</v>
+        <v>406</v>
       </c>
       <c r="B407" t="n">
         <v>1</v>
@@ -17148,7 +17148,7 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>1595</v>
+        <v>407</v>
       </c>
       <c r="B408" t="n">
         <v>1</v>
@@ -17189,7 +17189,7 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>1596</v>
+        <v>408</v>
       </c>
       <c r="B409" t="n">
         <v>1</v>
@@ -17230,7 +17230,7 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>1597</v>
+        <v>409</v>
       </c>
       <c r="B410" t="n">
         <v>1</v>
@@ -17271,7 +17271,7 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>1598</v>
+        <v>410</v>
       </c>
       <c r="B411" t="n">
         <v>1</v>
@@ -17312,7 +17312,7 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>1599</v>
+        <v>411</v>
       </c>
       <c r="B412" t="n">
         <v>1</v>
@@ -17353,7 +17353,7 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>1600</v>
+        <v>412</v>
       </c>
       <c r="B413" t="n">
         <v>1</v>
@@ -17394,7 +17394,7 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>1601</v>
+        <v>413</v>
       </c>
       <c r="B414" t="n">
         <v>1</v>
@@ -17435,7 +17435,7 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>1602</v>
+        <v>414</v>
       </c>
       <c r="B415" t="n">
         <v>1</v>
@@ -17476,7 +17476,7 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>1657</v>
+        <v>415</v>
       </c>
       <c r="B416" t="n">
         <v>1</v>
@@ -17517,7 +17517,7 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>1658</v>
+        <v>416</v>
       </c>
       <c r="B417" t="n">
         <v>1</v>
@@ -17558,7 +17558,7 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>1659</v>
+        <v>417</v>
       </c>
       <c r="B418" t="n">
         <v>1</v>
@@ -17599,7 +17599,7 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>1660</v>
+        <v>418</v>
       </c>
       <c r="B419" t="n">
         <v>1</v>
@@ -17640,7 +17640,7 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>1661</v>
+        <v>419</v>
       </c>
       <c r="B420" t="n">
         <v>1</v>
@@ -17681,7 +17681,7 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>1662</v>
+        <v>420</v>
       </c>
       <c r="B421" t="n">
         <v>1</v>
@@ -17722,7 +17722,7 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>1663</v>
+        <v>421</v>
       </c>
       <c r="B422" t="n">
         <v>1</v>
@@ -17763,7 +17763,7 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>1664</v>
+        <v>422</v>
       </c>
       <c r="B423" t="n">
         <v>1</v>
@@ -17804,7 +17804,7 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>1665</v>
+        <v>423</v>
       </c>
       <c r="B424" t="n">
         <v>1</v>
@@ -17845,7 +17845,7 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>1666</v>
+        <v>424</v>
       </c>
       <c r="B425" t="n">
         <v>1</v>
@@ -17886,7 +17886,7 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>1667</v>
+        <v>425</v>
       </c>
       <c r="B426" t="n">
         <v>1</v>
@@ -17927,7 +17927,7 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>1668</v>
+        <v>426</v>
       </c>
       <c r="B427" t="n">
         <v>1</v>
@@ -17968,7 +17968,7 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>1669</v>
+        <v>427</v>
       </c>
       <c r="B428" t="n">
         <v>1</v>
@@ -18009,7 +18009,7 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>1670</v>
+        <v>428</v>
       </c>
       <c r="B429" t="n">
         <v>1</v>
@@ -18050,7 +18050,7 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>1671</v>
+        <v>429</v>
       </c>
       <c r="B430" t="n">
         <v>1</v>
@@ -18091,7 +18091,7 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>1672</v>
+        <v>430</v>
       </c>
       <c r="B431" t="n">
         <v>1</v>
@@ -18132,7 +18132,7 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>1673</v>
+        <v>431</v>
       </c>
       <c r="B432" t="n">
         <v>1</v>
@@ -18173,7 +18173,7 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>1674</v>
+        <v>432</v>
       </c>
       <c r="B433" t="n">
         <v>1</v>
@@ -18214,7 +18214,7 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>1729</v>
+        <v>433</v>
       </c>
       <c r="B434" t="n">
         <v>1</v>
@@ -18255,7 +18255,7 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>1730</v>
+        <v>434</v>
       </c>
       <c r="B435" t="n">
         <v>1</v>
@@ -18296,7 +18296,7 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>1731</v>
+        <v>435</v>
       </c>
       <c r="B436" t="n">
         <v>1</v>
@@ -18337,7 +18337,7 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>1732</v>
+        <v>436</v>
       </c>
       <c r="B437" t="n">
         <v>1</v>
@@ -18378,7 +18378,7 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>1733</v>
+        <v>437</v>
       </c>
       <c r="B438" t="n">
         <v>1</v>
@@ -18419,7 +18419,7 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>1734</v>
+        <v>438</v>
       </c>
       <c r="B439" t="n">
         <v>1</v>
@@ -18460,7 +18460,7 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>1735</v>
+        <v>439</v>
       </c>
       <c r="B440" t="n">
         <v>1</v>
@@ -18501,7 +18501,7 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>1736</v>
+        <v>440</v>
       </c>
       <c r="B441" t="n">
         <v>1</v>
@@ -18542,7 +18542,7 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>1737</v>
+        <v>441</v>
       </c>
       <c r="B442" t="n">
         <v>1</v>
@@ -18583,7 +18583,7 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>1738</v>
+        <v>442</v>
       </c>
       <c r="B443" t="n">
         <v>1</v>
@@ -18624,7 +18624,7 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>1739</v>
+        <v>443</v>
       </c>
       <c r="B444" t="n">
         <v>1</v>
@@ -18665,7 +18665,7 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>1740</v>
+        <v>444</v>
       </c>
       <c r="B445" t="n">
         <v>1</v>
@@ -18706,7 +18706,7 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>1741</v>
+        <v>445</v>
       </c>
       <c r="B446" t="n">
         <v>1</v>
@@ -18747,7 +18747,7 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>1742</v>
+        <v>446</v>
       </c>
       <c r="B447" t="n">
         <v>1</v>
@@ -18788,7 +18788,7 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>1743</v>
+        <v>447</v>
       </c>
       <c r="B448" t="n">
         <v>1</v>
@@ -18829,7 +18829,7 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>1744</v>
+        <v>448</v>
       </c>
       <c r="B449" t="n">
         <v>1</v>
@@ -18870,7 +18870,7 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>1745</v>
+        <v>449</v>
       </c>
       <c r="B450" t="n">
         <v>1</v>
@@ -18911,7 +18911,7 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>1746</v>
+        <v>450</v>
       </c>
       <c r="B451" t="n">
         <v>1</v>
@@ -18952,7 +18952,7 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>1801</v>
+        <v>451</v>
       </c>
       <c r="B452" t="n">
         <v>1</v>
@@ -18993,7 +18993,7 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>1802</v>
+        <v>452</v>
       </c>
       <c r="B453" t="n">
         <v>1</v>
@@ -19034,7 +19034,7 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>1803</v>
+        <v>453</v>
       </c>
       <c r="B454" t="n">
         <v>1</v>
@@ -19075,7 +19075,7 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>1804</v>
+        <v>454</v>
       </c>
       <c r="B455" t="n">
         <v>1</v>
@@ -19116,7 +19116,7 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>1805</v>
+        <v>455</v>
       </c>
       <c r="B456" t="n">
         <v>1</v>
@@ -19157,7 +19157,7 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>1806</v>
+        <v>456</v>
       </c>
       <c r="B457" t="n">
         <v>1</v>
@@ -19198,7 +19198,7 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>1807</v>
+        <v>457</v>
       </c>
       <c r="B458" t="n">
         <v>1</v>
@@ -19239,7 +19239,7 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>1808</v>
+        <v>458</v>
       </c>
       <c r="B459" t="n">
         <v>1</v>
@@ -19280,7 +19280,7 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>1809</v>
+        <v>459</v>
       </c>
       <c r="B460" t="n">
         <v>1</v>
@@ -19321,7 +19321,7 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>1810</v>
+        <v>460</v>
       </c>
       <c r="B461" t="n">
         <v>1</v>
@@ -19362,7 +19362,7 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>1811</v>
+        <v>461</v>
       </c>
       <c r="B462" t="n">
         <v>1</v>
@@ -19403,7 +19403,7 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>1812</v>
+        <v>462</v>
       </c>
       <c r="B463" t="n">
         <v>1</v>
@@ -19444,7 +19444,7 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>1813</v>
+        <v>463</v>
       </c>
       <c r="B464" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>1814</v>
+        <v>464</v>
       </c>
       <c r="B465" t="n">
         <v>1</v>
@@ -19526,7 +19526,7 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>1815</v>
+        <v>465</v>
       </c>
       <c r="B466" t="n">
         <v>1</v>
@@ -19567,7 +19567,7 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>1816</v>
+        <v>466</v>
       </c>
       <c r="B467" t="n">
         <v>1</v>
@@ -19608,7 +19608,7 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>1817</v>
+        <v>467</v>
       </c>
       <c r="B468" t="n">
         <v>1</v>
@@ -19649,7 +19649,7 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>1818</v>
+        <v>468</v>
       </c>
       <c r="B469" t="n">
         <v>1</v>
@@ -19690,7 +19690,7 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>1873</v>
+        <v>469</v>
       </c>
       <c r="B470" t="n">
         <v>1</v>
@@ -19731,7 +19731,7 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>1874</v>
+        <v>470</v>
       </c>
       <c r="B471" t="n">
         <v>1</v>
@@ -19772,7 +19772,7 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>1875</v>
+        <v>471</v>
       </c>
       <c r="B472" t="n">
         <v>1</v>
@@ -19813,7 +19813,7 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>1876</v>
+        <v>472</v>
       </c>
       <c r="B473" t="n">
         <v>1</v>
@@ -19854,7 +19854,7 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>1877</v>
+        <v>473</v>
       </c>
       <c r="B474" t="n">
         <v>1</v>
@@ -19895,7 +19895,7 @@
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>1878</v>
+        <v>474</v>
       </c>
       <c r="B475" t="n">
         <v>1</v>
@@ -19936,7 +19936,7 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>1879</v>
+        <v>475</v>
       </c>
       <c r="B476" t="n">
         <v>1</v>
@@ -19977,7 +19977,7 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>1880</v>
+        <v>476</v>
       </c>
       <c r="B477" t="n">
         <v>1</v>
@@ -20018,7 +20018,7 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>1881</v>
+        <v>477</v>
       </c>
       <c r="B478" t="n">
         <v>1</v>
@@ -20059,7 +20059,7 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>1882</v>
+        <v>478</v>
       </c>
       <c r="B479" t="n">
         <v>1</v>
@@ -20100,7 +20100,7 @@
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>1883</v>
+        <v>479</v>
       </c>
       <c r="B480" t="n">
         <v>1</v>
@@ -20141,7 +20141,7 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>1884</v>
+        <v>480</v>
       </c>
       <c r="B481" t="n">
         <v>1</v>
@@ -20182,7 +20182,7 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>1885</v>
+        <v>481</v>
       </c>
       <c r="B482" t="n">
         <v>1</v>
@@ -20223,7 +20223,7 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>1886</v>
+        <v>482</v>
       </c>
       <c r="B483" t="n">
         <v>1</v>
@@ -20264,7 +20264,7 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>1887</v>
+        <v>483</v>
       </c>
       <c r="B484" t="n">
         <v>1</v>
@@ -20305,7 +20305,7 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>1888</v>
+        <v>484</v>
       </c>
       <c r="B485" t="n">
         <v>1</v>
@@ -20346,7 +20346,7 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>1889</v>
+        <v>485</v>
       </c>
       <c r="B486" t="n">
         <v>1</v>
@@ -20387,7 +20387,7 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>1890</v>
+        <v>486</v>
       </c>
       <c r="B487" t="n">
         <v>1</v>
@@ -20428,7 +20428,7 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>1945</v>
+        <v>487</v>
       </c>
       <c r="B488" t="n">
         <v>1</v>
@@ -20469,7 +20469,7 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>1946</v>
+        <v>488</v>
       </c>
       <c r="B489" t="n">
         <v>1</v>
@@ -20510,7 +20510,7 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>1947</v>
+        <v>489</v>
       </c>
       <c r="B490" t="n">
         <v>1</v>
@@ -20551,7 +20551,7 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>1948</v>
+        <v>490</v>
       </c>
       <c r="B491" t="n">
         <v>1</v>
@@ -20592,7 +20592,7 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>1949</v>
+        <v>491</v>
       </c>
       <c r="B492" t="n">
         <v>1</v>
@@ -20633,7 +20633,7 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>1950</v>
+        <v>492</v>
       </c>
       <c r="B493" t="n">
         <v>1</v>
@@ -20674,7 +20674,7 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>1951</v>
+        <v>493</v>
       </c>
       <c r="B494" t="n">
         <v>1</v>
@@ -20715,7 +20715,7 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>1952</v>
+        <v>494</v>
       </c>
       <c r="B495" t="n">
         <v>1</v>
@@ -20756,7 +20756,7 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>1953</v>
+        <v>495</v>
       </c>
       <c r="B496" t="n">
         <v>1</v>
@@ -20797,7 +20797,7 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>1954</v>
+        <v>496</v>
       </c>
       <c r="B497" t="n">
         <v>1</v>
@@ -20838,7 +20838,7 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>1955</v>
+        <v>497</v>
       </c>
       <c r="B498" t="n">
         <v>1</v>
@@ -20879,7 +20879,7 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>1956</v>
+        <v>498</v>
       </c>
       <c r="B499" t="n">
         <v>1</v>
@@ -20920,7 +20920,7 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>1957</v>
+        <v>499</v>
       </c>
       <c r="B500" t="n">
         <v>1</v>
@@ -20961,7 +20961,7 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>1958</v>
+        <v>500</v>
       </c>
       <c r="B501" t="n">
         <v>1</v>
@@ -21002,7 +21002,7 @@
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>1959</v>
+        <v>501</v>
       </c>
       <c r="B502" t="n">
         <v>1</v>
@@ -21043,7 +21043,7 @@
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>1960</v>
+        <v>502</v>
       </c>
       <c r="B503" t="n">
         <v>1</v>
@@ -21084,7 +21084,7 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>1961</v>
+        <v>503</v>
       </c>
       <c r="B504" t="n">
         <v>1</v>
@@ -21125,7 +21125,7 @@
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>1962</v>
+        <v>504</v>
       </c>
       <c r="B505" t="n">
         <v>1</v>
@@ -21166,7 +21166,7 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>2017</v>
+        <v>505</v>
       </c>
       <c r="B506" t="n">
         <v>1</v>
@@ -21207,7 +21207,7 @@
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>2018</v>
+        <v>506</v>
       </c>
       <c r="B507" t="n">
         <v>1</v>
@@ -21248,7 +21248,7 @@
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>2019</v>
+        <v>507</v>
       </c>
       <c r="B508" t="n">
         <v>1</v>
@@ -21289,7 +21289,7 @@
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>2020</v>
+        <v>508</v>
       </c>
       <c r="B509" t="n">
         <v>1</v>
@@ -21330,7 +21330,7 @@
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>2021</v>
+        <v>509</v>
       </c>
       <c r="B510" t="n">
         <v>1</v>
@@ -21371,7 +21371,7 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>2022</v>
+        <v>510</v>
       </c>
       <c r="B511" t="n">
         <v>1</v>
@@ -21412,7 +21412,7 @@
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>2023</v>
+        <v>511</v>
       </c>
       <c r="B512" t="n">
         <v>1</v>
@@ -21453,7 +21453,7 @@
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>2024</v>
+        <v>512</v>
       </c>
       <c r="B513" t="n">
         <v>1</v>
@@ -21494,7 +21494,7 @@
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>2025</v>
+        <v>513</v>
       </c>
       <c r="B514" t="n">
         <v>1</v>
@@ -21535,7 +21535,7 @@
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>2026</v>
+        <v>514</v>
       </c>
       <c r="B515" t="n">
         <v>1</v>
@@ -21576,7 +21576,7 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>2027</v>
+        <v>515</v>
       </c>
       <c r="B516" t="n">
         <v>1</v>
@@ -21617,7 +21617,7 @@
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>2028</v>
+        <v>516</v>
       </c>
       <c r="B517" t="n">
         <v>1</v>
@@ -21658,7 +21658,7 @@
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>2029</v>
+        <v>517</v>
       </c>
       <c r="B518" t="n">
         <v>1</v>
@@ -21699,7 +21699,7 @@
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>2030</v>
+        <v>518</v>
       </c>
       <c r="B519" t="n">
         <v>1</v>
@@ -21740,7 +21740,7 @@
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>2031</v>
+        <v>519</v>
       </c>
       <c r="B520" t="n">
         <v>1</v>
@@ -21781,7 +21781,7 @@
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>2032</v>
+        <v>520</v>
       </c>
       <c r="B521" t="n">
         <v>1</v>
@@ -21822,7 +21822,7 @@
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>2033</v>
+        <v>521</v>
       </c>
       <c r="B522" t="n">
         <v>1</v>
@@ -21863,7 +21863,7 @@
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>2034</v>
+        <v>522</v>
       </c>
       <c r="B523" t="n">
         <v>1</v>
@@ -21904,7 +21904,7 @@
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>2089</v>
+        <v>523</v>
       </c>
       <c r="B524" t="n">
         <v>1</v>
@@ -21945,7 +21945,7 @@
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>2090</v>
+        <v>524</v>
       </c>
       <c r="B525" t="n">
         <v>1</v>
@@ -21986,7 +21986,7 @@
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>2091</v>
+        <v>525</v>
       </c>
       <c r="B526" t="n">
         <v>1</v>
@@ -22027,7 +22027,7 @@
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>2092</v>
+        <v>526</v>
       </c>
       <c r="B527" t="n">
         <v>1</v>
@@ -22068,7 +22068,7 @@
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>2093</v>
+        <v>527</v>
       </c>
       <c r="B528" t="n">
         <v>1</v>
@@ -22109,7 +22109,7 @@
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>2094</v>
+        <v>528</v>
       </c>
       <c r="B529" t="n">
         <v>1</v>
@@ -22150,7 +22150,7 @@
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>2095</v>
+        <v>529</v>
       </c>
       <c r="B530" t="n">
         <v>1</v>
@@ -22191,7 +22191,7 @@
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>2096</v>
+        <v>530</v>
       </c>
       <c r="B531" t="n">
         <v>1</v>
@@ -22232,7 +22232,7 @@
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>2097</v>
+        <v>531</v>
       </c>
       <c r="B532" t="n">
         <v>1</v>
@@ -22273,7 +22273,7 @@
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>2098</v>
+        <v>532</v>
       </c>
       <c r="B533" t="n">
         <v>1</v>
@@ -22314,7 +22314,7 @@
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>2099</v>
+        <v>533</v>
       </c>
       <c r="B534" t="n">
         <v>1</v>
@@ -22355,7 +22355,7 @@
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>2100</v>
+        <v>534</v>
       </c>
       <c r="B535" t="n">
         <v>1</v>
@@ -22396,7 +22396,7 @@
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>2101</v>
+        <v>535</v>
       </c>
       <c r="B536" t="n">
         <v>1</v>
@@ -22437,7 +22437,7 @@
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>2102</v>
+        <v>536</v>
       </c>
       <c r="B537" t="n">
         <v>1</v>
@@ -22478,7 +22478,7 @@
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>2103</v>
+        <v>537</v>
       </c>
       <c r="B538" t="n">
         <v>1</v>
@@ -22519,7 +22519,7 @@
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>2104</v>
+        <v>538</v>
       </c>
       <c r="B539" t="n">
         <v>1</v>
@@ -22560,7 +22560,7 @@
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>2105</v>
+        <v>539</v>
       </c>
       <c r="B540" t="n">
         <v>1</v>
@@ -22601,7 +22601,7 @@
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>2106</v>
+        <v>540</v>
       </c>
       <c r="B541" t="n">
         <v>1</v>
@@ -22642,7 +22642,7 @@
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>55</v>
+        <v>541</v>
       </c>
       <c r="B542" t="n">
         <v>1</v>
@@ -22683,7 +22683,7 @@
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>56</v>
+        <v>542</v>
       </c>
       <c r="B543" t="n">
         <v>1</v>
@@ -22724,7 +22724,7 @@
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>57</v>
+        <v>543</v>
       </c>
       <c r="B544" t="n">
         <v>1</v>
@@ -22765,7 +22765,7 @@
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>58</v>
+        <v>544</v>
       </c>
       <c r="B545" t="n">
         <v>1</v>
@@ -22806,7 +22806,7 @@
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>59</v>
+        <v>545</v>
       </c>
       <c r="B546" t="n">
         <v>1</v>
@@ -22847,7 +22847,7 @@
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>60</v>
+        <v>546</v>
       </c>
       <c r="B547" t="n">
         <v>1</v>
@@ -22888,7 +22888,7 @@
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>61</v>
+        <v>547</v>
       </c>
       <c r="B548" t="n">
         <v>1</v>
@@ -22929,7 +22929,7 @@
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>62</v>
+        <v>548</v>
       </c>
       <c r="B549" t="n">
         <v>1</v>
@@ -22970,7 +22970,7 @@
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>63</v>
+        <v>549</v>
       </c>
       <c r="B550" t="n">
         <v>1</v>
@@ -23011,7 +23011,7 @@
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>64</v>
+        <v>550</v>
       </c>
       <c r="B551" t="n">
         <v>1</v>
@@ -23052,7 +23052,7 @@
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>65</v>
+        <v>551</v>
       </c>
       <c r="B552" t="n">
         <v>1</v>
@@ -23093,7 +23093,7 @@
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>66</v>
+        <v>552</v>
       </c>
       <c r="B553" t="n">
         <v>1</v>
@@ -23134,7 +23134,7 @@
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>67</v>
+        <v>553</v>
       </c>
       <c r="B554" t="n">
         <v>1</v>
@@ -23175,7 +23175,7 @@
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>68</v>
+        <v>554</v>
       </c>
       <c r="B555" t="n">
         <v>1</v>
@@ -23216,7 +23216,7 @@
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>69</v>
+        <v>555</v>
       </c>
       <c r="B556" t="n">
         <v>1</v>
@@ -23257,7 +23257,7 @@
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>70</v>
+        <v>556</v>
       </c>
       <c r="B557" t="n">
         <v>1</v>
@@ -23298,7 +23298,7 @@
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>71</v>
+        <v>557</v>
       </c>
       <c r="B558" t="n">
         <v>1</v>
@@ -23339,7 +23339,7 @@
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>72</v>
+        <v>558</v>
       </c>
       <c r="B559" t="n">
         <v>1</v>
@@ -23380,7 +23380,7 @@
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>127</v>
+        <v>559</v>
       </c>
       <c r="B560" t="n">
         <v>1</v>
@@ -23421,7 +23421,7 @@
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>128</v>
+        <v>560</v>
       </c>
       <c r="B561" t="n">
         <v>1</v>
@@ -23462,7 +23462,7 @@
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>129</v>
+        <v>561</v>
       </c>
       <c r="B562" t="n">
         <v>1</v>
@@ -23503,7 +23503,7 @@
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>130</v>
+        <v>562</v>
       </c>
       <c r="B563" t="n">
         <v>1</v>
@@ -23544,7 +23544,7 @@
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>131</v>
+        <v>563</v>
       </c>
       <c r="B564" t="n">
         <v>1</v>
@@ -23585,7 +23585,7 @@
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>132</v>
+        <v>564</v>
       </c>
       <c r="B565" t="n">
         <v>1</v>
@@ -23626,7 +23626,7 @@
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>133</v>
+        <v>565</v>
       </c>
       <c r="B566" t="n">
         <v>1</v>
@@ -23667,7 +23667,7 @@
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>134</v>
+        <v>566</v>
       </c>
       <c r="B567" t="n">
         <v>1</v>
@@ -23708,7 +23708,7 @@
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>135</v>
+        <v>567</v>
       </c>
       <c r="B568" t="n">
         <v>1</v>
@@ -23749,7 +23749,7 @@
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>136</v>
+        <v>568</v>
       </c>
       <c r="B569" t="n">
         <v>1</v>
@@ -23790,7 +23790,7 @@
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>137</v>
+        <v>569</v>
       </c>
       <c r="B570" t="n">
         <v>1</v>
@@ -23831,7 +23831,7 @@
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>138</v>
+        <v>570</v>
       </c>
       <c r="B571" t="n">
         <v>1</v>
@@ -23872,7 +23872,7 @@
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>139</v>
+        <v>571</v>
       </c>
       <c r="B572" t="n">
         <v>1</v>
@@ -23913,7 +23913,7 @@
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>140</v>
+        <v>572</v>
       </c>
       <c r="B573" t="n">
         <v>1</v>
@@ -23954,7 +23954,7 @@
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>141</v>
+        <v>573</v>
       </c>
       <c r="B574" t="n">
         <v>1</v>
@@ -23995,7 +23995,7 @@
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>142</v>
+        <v>574</v>
       </c>
       <c r="B575" t="n">
         <v>1</v>
@@ -24036,7 +24036,7 @@
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>143</v>
+        <v>575</v>
       </c>
       <c r="B576" t="n">
         <v>1</v>
@@ -24077,7 +24077,7 @@
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>144</v>
+        <v>576</v>
       </c>
       <c r="B577" t="n">
         <v>1</v>
@@ -24118,7 +24118,7 @@
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>199</v>
+        <v>577</v>
       </c>
       <c r="B578" t="n">
         <v>1</v>
@@ -24159,7 +24159,7 @@
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>200</v>
+        <v>578</v>
       </c>
       <c r="B579" t="n">
         <v>1</v>
@@ -24200,7 +24200,7 @@
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>201</v>
+        <v>579</v>
       </c>
       <c r="B580" t="n">
         <v>1</v>
@@ -24241,7 +24241,7 @@
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>202</v>
+        <v>580</v>
       </c>
       <c r="B581" t="n">
         <v>1</v>
@@ -24282,7 +24282,7 @@
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>203</v>
+        <v>581</v>
       </c>
       <c r="B582" t="n">
         <v>1</v>
@@ -24323,7 +24323,7 @@
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>204</v>
+        <v>582</v>
       </c>
       <c r="B583" t="n">
         <v>1</v>
@@ -24364,7 +24364,7 @@
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>205</v>
+        <v>583</v>
       </c>
       <c r="B584" t="n">
         <v>1</v>
@@ -24405,7 +24405,7 @@
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>206</v>
+        <v>584</v>
       </c>
       <c r="B585" t="n">
         <v>1</v>
@@ -24446,7 +24446,7 @@
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>207</v>
+        <v>585</v>
       </c>
       <c r="B586" t="n">
         <v>1</v>
@@ -24487,7 +24487,7 @@
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>208</v>
+        <v>586</v>
       </c>
       <c r="B587" t="n">
         <v>1</v>
@@ -24528,7 +24528,7 @@
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>209</v>
+        <v>587</v>
       </c>
       <c r="B588" t="n">
         <v>1</v>
@@ -24569,7 +24569,7 @@
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>210</v>
+        <v>588</v>
       </c>
       <c r="B589" t="n">
         <v>1</v>
@@ -24610,7 +24610,7 @@
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>211</v>
+        <v>589</v>
       </c>
       <c r="B590" t="n">
         <v>1</v>
@@ -24651,7 +24651,7 @@
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>212</v>
+        <v>590</v>
       </c>
       <c r="B591" t="n">
         <v>1</v>
@@ -24692,7 +24692,7 @@
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>213</v>
+        <v>591</v>
       </c>
       <c r="B592" t="n">
         <v>1</v>
@@ -24733,7 +24733,7 @@
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>214</v>
+        <v>592</v>
       </c>
       <c r="B593" t="n">
         <v>1</v>
@@ -24774,7 +24774,7 @@
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>215</v>
+        <v>593</v>
       </c>
       <c r="B594" t="n">
         <v>1</v>
@@ -24815,7 +24815,7 @@
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>216</v>
+        <v>594</v>
       </c>
       <c r="B595" t="n">
         <v>1</v>
@@ -24856,7 +24856,7 @@
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>271</v>
+        <v>595</v>
       </c>
       <c r="B596" t="n">
         <v>1</v>
@@ -24897,7 +24897,7 @@
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>272</v>
+        <v>596</v>
       </c>
       <c r="B597" t="n">
         <v>1</v>
@@ -24938,7 +24938,7 @@
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>273</v>
+        <v>597</v>
       </c>
       <c r="B598" t="n">
         <v>1</v>
@@ -24979,7 +24979,7 @@
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>274</v>
+        <v>598</v>
       </c>
       <c r="B599" t="n">
         <v>1</v>
@@ -25020,7 +25020,7 @@
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>275</v>
+        <v>599</v>
       </c>
       <c r="B600" t="n">
         <v>1</v>
@@ -25061,7 +25061,7 @@
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>276</v>
+        <v>600</v>
       </c>
       <c r="B601" t="n">
         <v>1</v>
@@ -25102,7 +25102,7 @@
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>277</v>
+        <v>601</v>
       </c>
       <c r="B602" t="n">
         <v>1</v>
@@ -25143,7 +25143,7 @@
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>278</v>
+        <v>602</v>
       </c>
       <c r="B603" t="n">
         <v>1</v>
@@ -25184,7 +25184,7 @@
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>279</v>
+        <v>603</v>
       </c>
       <c r="B604" t="n">
         <v>1</v>
@@ -25225,7 +25225,7 @@
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>280</v>
+        <v>604</v>
       </c>
       <c r="B605" t="n">
         <v>1</v>
@@ -25266,7 +25266,7 @@
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>281</v>
+        <v>605</v>
       </c>
       <c r="B606" t="n">
         <v>1</v>
@@ -25307,7 +25307,7 @@
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>282</v>
+        <v>606</v>
       </c>
       <c r="B607" t="n">
         <v>1</v>
@@ -25348,7 +25348,7 @@
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>283</v>
+        <v>607</v>
       </c>
       <c r="B608" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>284</v>
+        <v>608</v>
       </c>
       <c r="B609" t="n">
         <v>1</v>
@@ -25430,7 +25430,7 @@
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>285</v>
+        <v>609</v>
       </c>
       <c r="B610" t="n">
         <v>1</v>
@@ -25471,7 +25471,7 @@
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>286</v>
+        <v>610</v>
       </c>
       <c r="B611" t="n">
         <v>1</v>
@@ -25512,7 +25512,7 @@
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>287</v>
+        <v>611</v>
       </c>
       <c r="B612" t="n">
         <v>1</v>
@@ -25553,7 +25553,7 @@
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>288</v>
+        <v>612</v>
       </c>
       <c r="B613" t="n">
         <v>1</v>
@@ -25594,7 +25594,7 @@
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>343</v>
+        <v>613</v>
       </c>
       <c r="B614" t="n">
         <v>1</v>
@@ -25635,7 +25635,7 @@
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>344</v>
+        <v>614</v>
       </c>
       <c r="B615" t="n">
         <v>1</v>
@@ -25676,7 +25676,7 @@
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>345</v>
+        <v>615</v>
       </c>
       <c r="B616" t="n">
         <v>1</v>
@@ -25717,7 +25717,7 @@
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>346</v>
+        <v>616</v>
       </c>
       <c r="B617" t="n">
         <v>1</v>
@@ -25758,7 +25758,7 @@
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>347</v>
+        <v>617</v>
       </c>
       <c r="B618" t="n">
         <v>1</v>
@@ -25799,7 +25799,7 @@
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>348</v>
+        <v>618</v>
       </c>
       <c r="B619" t="n">
         <v>1</v>
@@ -25840,7 +25840,7 @@
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>349</v>
+        <v>619</v>
       </c>
       <c r="B620" t="n">
         <v>1</v>
@@ -25881,7 +25881,7 @@
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>350</v>
+        <v>620</v>
       </c>
       <c r="B621" t="n">
         <v>1</v>
@@ -25922,7 +25922,7 @@
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>351</v>
+        <v>621</v>
       </c>
       <c r="B622" t="n">
         <v>1</v>
@@ -25963,7 +25963,7 @@
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>352</v>
+        <v>622</v>
       </c>
       <c r="B623" t="n">
         <v>1</v>
@@ -26004,7 +26004,7 @@
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>353</v>
+        <v>623</v>
       </c>
       <c r="B624" t="n">
         <v>1</v>
@@ -26045,7 +26045,7 @@
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>354</v>
+        <v>624</v>
       </c>
       <c r="B625" t="n">
         <v>1</v>
@@ -26086,7 +26086,7 @@
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>355</v>
+        <v>625</v>
       </c>
       <c r="B626" t="n">
         <v>1</v>
@@ -26127,7 +26127,7 @@
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>356</v>
+        <v>626</v>
       </c>
       <c r="B627" t="n">
         <v>1</v>
@@ -26168,7 +26168,7 @@
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>357</v>
+        <v>627</v>
       </c>
       <c r="B628" t="n">
         <v>1</v>
@@ -26209,7 +26209,7 @@
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>358</v>
+        <v>628</v>
       </c>
       <c r="B629" t="n">
         <v>1</v>
@@ -26250,7 +26250,7 @@
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>359</v>
+        <v>629</v>
       </c>
       <c r="B630" t="n">
         <v>1</v>
@@ -26291,7 +26291,7 @@
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>360</v>
+        <v>630</v>
       </c>
       <c r="B631" t="n">
         <v>1</v>
@@ -26332,7 +26332,7 @@
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>415</v>
+        <v>631</v>
       </c>
       <c r="B632" t="n">
         <v>1</v>
@@ -26373,7 +26373,7 @@
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>416</v>
+        <v>632</v>
       </c>
       <c r="B633" t="n">
         <v>1</v>
@@ -26414,7 +26414,7 @@
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>417</v>
+        <v>633</v>
       </c>
       <c r="B634" t="n">
         <v>1</v>
@@ -26455,7 +26455,7 @@
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>418</v>
+        <v>634</v>
       </c>
       <c r="B635" t="n">
         <v>1</v>
@@ -26496,7 +26496,7 @@
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>419</v>
+        <v>635</v>
       </c>
       <c r="B636" t="n">
         <v>1</v>
@@ -26537,7 +26537,7 @@
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>420</v>
+        <v>636</v>
       </c>
       <c r="B637" t="n">
         <v>1</v>
@@ -26578,7 +26578,7 @@
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>421</v>
+        <v>637</v>
       </c>
       <c r="B638" t="n">
         <v>1</v>
@@ -26619,7 +26619,7 @@
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>422</v>
+        <v>638</v>
       </c>
       <c r="B639" t="n">
         <v>1</v>
@@ -26660,7 +26660,7 @@
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>423</v>
+        <v>639</v>
       </c>
       <c r="B640" t="n">
         <v>1</v>
@@ -26701,7 +26701,7 @@
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>424</v>
+        <v>640</v>
       </c>
       <c r="B641" t="n">
         <v>1</v>
@@ -26742,7 +26742,7 @@
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>425</v>
+        <v>641</v>
       </c>
       <c r="B642" t="n">
         <v>1</v>
@@ -26783,7 +26783,7 @@
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>426</v>
+        <v>642</v>
       </c>
       <c r="B643" t="n">
         <v>1</v>
@@ -26824,7 +26824,7 @@
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>427</v>
+        <v>643</v>
       </c>
       <c r="B644" t="n">
         <v>1</v>
@@ -26865,7 +26865,7 @@
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>428</v>
+        <v>644</v>
       </c>
       <c r="B645" t="n">
         <v>1</v>
@@ -26906,7 +26906,7 @@
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>429</v>
+        <v>645</v>
       </c>
       <c r="B646" t="n">
         <v>1</v>
@@ -26947,7 +26947,7 @@
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>430</v>
+        <v>646</v>
       </c>
       <c r="B647" t="n">
         <v>1</v>
@@ -26988,7 +26988,7 @@
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>431</v>
+        <v>647</v>
       </c>
       <c r="B648" t="n">
         <v>1</v>
@@ -27029,7 +27029,7 @@
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>432</v>
+        <v>648</v>
       </c>
       <c r="B649" t="n">
         <v>1</v>
@@ -27070,7 +27070,7 @@
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>487</v>
+        <v>649</v>
       </c>
       <c r="B650" t="n">
         <v>1</v>
@@ -27111,7 +27111,7 @@
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>488</v>
+        <v>650</v>
       </c>
       <c r="B651" t="n">
         <v>1</v>
@@ -27152,7 +27152,7 @@
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>489</v>
+        <v>651</v>
       </c>
       <c r="B652" t="n">
         <v>1</v>
@@ -27193,7 +27193,7 @@
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>490</v>
+        <v>652</v>
       </c>
       <c r="B653" t="n">
         <v>1</v>
@@ -27234,7 +27234,7 @@
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>491</v>
+        <v>653</v>
       </c>
       <c r="B654" t="n">
         <v>1</v>
@@ -27275,7 +27275,7 @@
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>492</v>
+        <v>654</v>
       </c>
       <c r="B655" t="n">
         <v>1</v>
@@ -27316,7 +27316,7 @@
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>493</v>
+        <v>655</v>
       </c>
       <c r="B656" t="n">
         <v>1</v>
@@ -27357,7 +27357,7 @@
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>494</v>
+        <v>656</v>
       </c>
       <c r="B657" t="n">
         <v>1</v>
@@ -27398,7 +27398,7 @@
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>495</v>
+        <v>657</v>
       </c>
       <c r="B658" t="n">
         <v>1</v>
@@ -27439,7 +27439,7 @@
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>496</v>
+        <v>658</v>
       </c>
       <c r="B659" t="n">
         <v>1</v>
@@ -27480,7 +27480,7 @@
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>497</v>
+        <v>659</v>
       </c>
       <c r="B660" t="n">
         <v>1</v>
@@ -27521,7 +27521,7 @@
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>498</v>
+        <v>660</v>
       </c>
       <c r="B661" t="n">
         <v>1</v>
@@ -27562,7 +27562,7 @@
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>499</v>
+        <v>661</v>
       </c>
       <c r="B662" t="n">
         <v>1</v>
@@ -27603,7 +27603,7 @@
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>500</v>
+        <v>662</v>
       </c>
       <c r="B663" t="n">
         <v>1</v>
@@ -27644,7 +27644,7 @@
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>501</v>
+        <v>663</v>
       </c>
       <c r="B664" t="n">
         <v>1</v>
@@ -27685,7 +27685,7 @@
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>502</v>
+        <v>664</v>
       </c>
       <c r="B665" t="n">
         <v>1</v>
@@ -27726,7 +27726,7 @@
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>503</v>
+        <v>665</v>
       </c>
       <c r="B666" t="n">
         <v>1</v>
@@ -27767,7 +27767,7 @@
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>504</v>
+        <v>666</v>
       </c>
       <c r="B667" t="n">
         <v>1</v>
@@ -27808,7 +27808,7 @@
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>559</v>
+        <v>667</v>
       </c>
       <c r="B668" t="n">
         <v>1</v>
@@ -27849,7 +27849,7 @@
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>560</v>
+        <v>668</v>
       </c>
       <c r="B669" t="n">
         <v>1</v>
@@ -27890,7 +27890,7 @@
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>561</v>
+        <v>669</v>
       </c>
       <c r="B670" t="n">
         <v>1</v>
@@ -27931,7 +27931,7 @@
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>562</v>
+        <v>670</v>
       </c>
       <c r="B671" t="n">
         <v>1</v>
@@ -27972,7 +27972,7 @@
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>563</v>
+        <v>671</v>
       </c>
       <c r="B672" t="n">
         <v>1</v>
@@ -28013,7 +28013,7 @@
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>564</v>
+        <v>672</v>
       </c>
       <c r="B673" t="n">
         <v>1</v>
@@ -28054,7 +28054,7 @@
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>565</v>
+        <v>673</v>
       </c>
       <c r="B674" t="n">
         <v>1</v>
@@ -28095,7 +28095,7 @@
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>566</v>
+        <v>674</v>
       </c>
       <c r="B675" t="n">
         <v>1</v>
@@ -28136,7 +28136,7 @@
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>567</v>
+        <v>675</v>
       </c>
       <c r="B676" t="n">
         <v>1</v>
@@ -28177,7 +28177,7 @@
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>568</v>
+        <v>676</v>
       </c>
       <c r="B677" t="n">
         <v>1</v>
@@ -28218,7 +28218,7 @@
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>569</v>
+        <v>677</v>
       </c>
       <c r="B678" t="n">
         <v>1</v>
@@ -28259,7 +28259,7 @@
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>570</v>
+        <v>678</v>
       </c>
       <c r="B679" t="n">
         <v>1</v>
@@ -28300,7 +28300,7 @@
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>571</v>
+        <v>679</v>
       </c>
       <c r="B680" t="n">
         <v>1</v>
@@ -28341,7 +28341,7 @@
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>572</v>
+        <v>680</v>
       </c>
       <c r="B681" t="n">
         <v>1</v>
@@ -28382,7 +28382,7 @@
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>573</v>
+        <v>681</v>
       </c>
       <c r="B682" t="n">
         <v>1</v>
@@ -28423,7 +28423,7 @@
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>574</v>
+        <v>682</v>
       </c>
       <c r="B683" t="n">
         <v>1</v>
@@ -28464,7 +28464,7 @@
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>575</v>
+        <v>683</v>
       </c>
       <c r="B684" t="n">
         <v>1</v>
@@ -28505,7 +28505,7 @@
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>576</v>
+        <v>684</v>
       </c>
       <c r="B685" t="n">
         <v>1</v>
@@ -28546,7 +28546,7 @@
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>631</v>
+        <v>685</v>
       </c>
       <c r="B686" t="n">
         <v>1</v>
@@ -28587,7 +28587,7 @@
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>632</v>
+        <v>686</v>
       </c>
       <c r="B687" t="n">
         <v>1</v>
@@ -28628,7 +28628,7 @@
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>633</v>
+        <v>687</v>
       </c>
       <c r="B688" t="n">
         <v>1</v>
@@ -28669,7 +28669,7 @@
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>634</v>
+        <v>688</v>
       </c>
       <c r="B689" t="n">
         <v>1</v>
@@ -28710,7 +28710,7 @@
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>635</v>
+        <v>689</v>
       </c>
       <c r="B690" t="n">
         <v>1</v>
@@ -28751,7 +28751,7 @@
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>636</v>
+        <v>690</v>
       </c>
       <c r="B691" t="n">
         <v>1</v>
@@ -28792,7 +28792,7 @@
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>637</v>
+        <v>691</v>
       </c>
       <c r="B692" t="n">
         <v>1</v>
@@ -28833,7 +28833,7 @@
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>638</v>
+        <v>692</v>
       </c>
       <c r="B693" t="n">
         <v>1</v>
@@ -28874,7 +28874,7 @@
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>639</v>
+        <v>693</v>
       </c>
       <c r="B694" t="n">
         <v>1</v>
@@ -28915,7 +28915,7 @@
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>640</v>
+        <v>694</v>
       </c>
       <c r="B695" t="n">
         <v>1</v>
@@ -28956,7 +28956,7 @@
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>641</v>
+        <v>695</v>
       </c>
       <c r="B696" t="n">
         <v>1</v>
@@ -28997,7 +28997,7 @@
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>642</v>
+        <v>696</v>
       </c>
       <c r="B697" t="n">
         <v>1</v>
@@ -29038,7 +29038,7 @@
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>643</v>
+        <v>697</v>
       </c>
       <c r="B698" t="n">
         <v>1</v>
@@ -29079,7 +29079,7 @@
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>644</v>
+        <v>698</v>
       </c>
       <c r="B699" t="n">
         <v>1</v>
@@ -29120,7 +29120,7 @@
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>645</v>
+        <v>699</v>
       </c>
       <c r="B700" t="n">
         <v>1</v>
@@ -29161,7 +29161,7 @@
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>646</v>
+        <v>700</v>
       </c>
       <c r="B701" t="n">
         <v>1</v>
@@ -29202,7 +29202,7 @@
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>647</v>
+        <v>701</v>
       </c>
       <c r="B702" t="n">
         <v>1</v>
@@ -29243,7 +29243,7 @@
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>648</v>
+        <v>702</v>
       </c>
       <c r="B703" t="n">
         <v>1</v>
@@ -30022,7 +30022,7 @@
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>775</v>
+        <v>721</v>
       </c>
       <c r="B722" t="n">
         <v>1</v>
@@ -30063,7 +30063,7 @@
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>776</v>
+        <v>722</v>
       </c>
       <c r="B723" t="n">
         <v>1</v>
@@ -30104,7 +30104,7 @@
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>777</v>
+        <v>723</v>
       </c>
       <c r="B724" t="n">
         <v>1</v>
@@ -30145,7 +30145,7 @@
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>778</v>
+        <v>724</v>
       </c>
       <c r="B725" t="n">
         <v>1</v>
@@ -30186,7 +30186,7 @@
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>779</v>
+        <v>725</v>
       </c>
       <c r="B726" t="n">
         <v>1</v>
@@ -30227,7 +30227,7 @@
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>780</v>
+        <v>726</v>
       </c>
       <c r="B727" t="n">
         <v>1</v>
@@ -30268,7 +30268,7 @@
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>781</v>
+        <v>727</v>
       </c>
       <c r="B728" t="n">
         <v>1</v>
@@ -30309,7 +30309,7 @@
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>782</v>
+        <v>728</v>
       </c>
       <c r="B729" t="n">
         <v>1</v>
@@ -30350,7 +30350,7 @@
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>783</v>
+        <v>729</v>
       </c>
       <c r="B730" t="n">
         <v>1</v>
@@ -30391,7 +30391,7 @@
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>784</v>
+        <v>730</v>
       </c>
       <c r="B731" t="n">
         <v>1</v>
@@ -30432,7 +30432,7 @@
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>785</v>
+        <v>731</v>
       </c>
       <c r="B732" t="n">
         <v>1</v>
@@ -30473,7 +30473,7 @@
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>786</v>
+        <v>732</v>
       </c>
       <c r="B733" t="n">
         <v>1</v>
@@ -30514,7 +30514,7 @@
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>787</v>
+        <v>733</v>
       </c>
       <c r="B734" t="n">
         <v>1</v>
@@ -30555,7 +30555,7 @@
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>788</v>
+        <v>734</v>
       </c>
       <c r="B735" t="n">
         <v>1</v>
@@ -30596,7 +30596,7 @@
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>789</v>
+        <v>735</v>
       </c>
       <c r="B736" t="n">
         <v>1</v>
@@ -30637,7 +30637,7 @@
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>790</v>
+        <v>736</v>
       </c>
       <c r="B737" t="n">
         <v>1</v>
@@ -30678,7 +30678,7 @@
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>791</v>
+        <v>737</v>
       </c>
       <c r="B738" t="n">
         <v>1</v>
@@ -30719,7 +30719,7 @@
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>792</v>
+        <v>738</v>
       </c>
       <c r="B739" t="n">
         <v>1</v>
@@ -30760,7 +30760,7 @@
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>847</v>
+        <v>739</v>
       </c>
       <c r="B740" t="n">
         <v>1</v>
@@ -30801,7 +30801,7 @@
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>848</v>
+        <v>740</v>
       </c>
       <c r="B741" t="n">
         <v>1</v>
@@ -30842,7 +30842,7 @@
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>849</v>
+        <v>741</v>
       </c>
       <c r="B742" t="n">
         <v>1</v>
@@ -30883,7 +30883,7 @@
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>850</v>
+        <v>742</v>
       </c>
       <c r="B743" t="n">
         <v>1</v>
@@ -30924,7 +30924,7 @@
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>851</v>
+        <v>743</v>
       </c>
       <c r="B744" t="n">
         <v>1</v>
@@ -30965,7 +30965,7 @@
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>852</v>
+        <v>744</v>
       </c>
       <c r="B745" t="n">
         <v>1</v>
@@ -31006,7 +31006,7 @@
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>853</v>
+        <v>745</v>
       </c>
       <c r="B746" t="n">
         <v>1</v>
@@ -31047,7 +31047,7 @@
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>854</v>
+        <v>746</v>
       </c>
       <c r="B747" t="n">
         <v>1</v>
@@ -31088,7 +31088,7 @@
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>855</v>
+        <v>747</v>
       </c>
       <c r="B748" t="n">
         <v>1</v>
@@ -31129,7 +31129,7 @@
     </row>
     <row r="749">
       <c r="A749" t="n">
-        <v>856</v>
+        <v>748</v>
       </c>
       <c r="B749" t="n">
         <v>1</v>
@@ -31170,7 +31170,7 @@
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>857</v>
+        <v>749</v>
       </c>
       <c r="B750" t="n">
         <v>1</v>
@@ -31211,7 +31211,7 @@
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>858</v>
+        <v>750</v>
       </c>
       <c r="B751" t="n">
         <v>1</v>
@@ -31252,7 +31252,7 @@
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>859</v>
+        <v>751</v>
       </c>
       <c r="B752" t="n">
         <v>1</v>
@@ -31293,7 +31293,7 @@
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>860</v>
+        <v>752</v>
       </c>
       <c r="B753" t="n">
         <v>1</v>
@@ -31334,7 +31334,7 @@
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>861</v>
+        <v>753</v>
       </c>
       <c r="B754" t="n">
         <v>1</v>
@@ -31375,7 +31375,7 @@
     </row>
     <row r="755">
       <c r="A755" t="n">
-        <v>862</v>
+        <v>754</v>
       </c>
       <c r="B755" t="n">
         <v>1</v>
@@ -31416,7 +31416,7 @@
     </row>
     <row r="756">
       <c r="A756" t="n">
-        <v>863</v>
+        <v>755</v>
       </c>
       <c r="B756" t="n">
         <v>1</v>
@@ -31457,7 +31457,7 @@
     </row>
     <row r="757">
       <c r="A757" t="n">
-        <v>864</v>
+        <v>756</v>
       </c>
       <c r="B757" t="n">
         <v>1</v>
@@ -31498,7 +31498,7 @@
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>919</v>
+        <v>757</v>
       </c>
       <c r="B758" t="n">
         <v>1</v>
@@ -31539,7 +31539,7 @@
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>920</v>
+        <v>758</v>
       </c>
       <c r="B759" t="n">
         <v>1</v>
@@ -31580,7 +31580,7 @@
     </row>
     <row r="760">
       <c r="A760" t="n">
-        <v>921</v>
+        <v>759</v>
       </c>
       <c r="B760" t="n">
         <v>1</v>
@@ -31621,7 +31621,7 @@
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>922</v>
+        <v>760</v>
       </c>
       <c r="B761" t="n">
         <v>1</v>
@@ -31662,7 +31662,7 @@
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>923</v>
+        <v>761</v>
       </c>
       <c r="B762" t="n">
         <v>1</v>
@@ -31703,7 +31703,7 @@
     </row>
     <row r="763">
       <c r="A763" t="n">
-        <v>924</v>
+        <v>762</v>
       </c>
       <c r="B763" t="n">
         <v>1</v>
@@ -31744,7 +31744,7 @@
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>925</v>
+        <v>763</v>
       </c>
       <c r="B764" t="n">
         <v>1</v>
@@ -31785,7 +31785,7 @@
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>926</v>
+        <v>764</v>
       </c>
       <c r="B765" t="n">
         <v>1</v>
@@ -31826,7 +31826,7 @@
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>927</v>
+        <v>765</v>
       </c>
       <c r="B766" t="n">
         <v>1</v>
@@ -31867,7 +31867,7 @@
     </row>
     <row r="767">
       <c r="A767" t="n">
-        <v>928</v>
+        <v>766</v>
       </c>
       <c r="B767" t="n">
         <v>1</v>
@@ -31908,7 +31908,7 @@
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>929</v>
+        <v>767</v>
       </c>
       <c r="B768" t="n">
         <v>1</v>
@@ -31949,7 +31949,7 @@
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>930</v>
+        <v>768</v>
       </c>
       <c r="B769" t="n">
         <v>1</v>
@@ -31990,7 +31990,7 @@
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>931</v>
+        <v>769</v>
       </c>
       <c r="B770" t="n">
         <v>1</v>
@@ -32031,7 +32031,7 @@
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>932</v>
+        <v>770</v>
       </c>
       <c r="B771" t="n">
         <v>1</v>
@@ -32072,7 +32072,7 @@
     </row>
     <row r="772">
       <c r="A772" t="n">
-        <v>933</v>
+        <v>771</v>
       </c>
       <c r="B772" t="n">
         <v>1</v>
@@ -32113,7 +32113,7 @@
     </row>
     <row r="773">
       <c r="A773" t="n">
-        <v>934</v>
+        <v>772</v>
       </c>
       <c r="B773" t="n">
         <v>1</v>
@@ -32154,7 +32154,7 @@
     </row>
     <row r="774">
       <c r="A774" t="n">
-        <v>935</v>
+        <v>773</v>
       </c>
       <c r="B774" t="n">
         <v>1</v>
@@ -32195,7 +32195,7 @@
     </row>
     <row r="775">
       <c r="A775" t="n">
-        <v>936</v>
+        <v>774</v>
       </c>
       <c r="B775" t="n">
         <v>1</v>
@@ -32236,7 +32236,7 @@
     </row>
     <row r="776">
       <c r="A776" t="n">
-        <v>991</v>
+        <v>775</v>
       </c>
       <c r="B776" t="n">
         <v>1</v>
@@ -32277,7 +32277,7 @@
     </row>
     <row r="777">
       <c r="A777" t="n">
-        <v>992</v>
+        <v>776</v>
       </c>
       <c r="B777" t="n">
         <v>1</v>
@@ -32318,7 +32318,7 @@
     </row>
     <row r="778">
       <c r="A778" t="n">
-        <v>993</v>
+        <v>777</v>
       </c>
       <c r="B778" t="n">
         <v>1</v>
@@ -32359,7 +32359,7 @@
     </row>
     <row r="779">
       <c r="A779" t="n">
-        <v>994</v>
+        <v>778</v>
       </c>
       <c r="B779" t="n">
         <v>1</v>
@@ -32400,7 +32400,7 @@
     </row>
     <row r="780">
       <c r="A780" t="n">
-        <v>995</v>
+        <v>779</v>
       </c>
       <c r="B780" t="n">
         <v>1</v>
@@ -32441,7 +32441,7 @@
     </row>
     <row r="781">
       <c r="A781" t="n">
-        <v>996</v>
+        <v>780</v>
       </c>
       <c r="B781" t="n">
         <v>1</v>
@@ -32482,7 +32482,7 @@
     </row>
     <row r="782">
       <c r="A782" t="n">
-        <v>997</v>
+        <v>781</v>
       </c>
       <c r="B782" t="n">
         <v>1</v>
@@ -32523,7 +32523,7 @@
     </row>
     <row r="783">
       <c r="A783" t="n">
-        <v>998</v>
+        <v>782</v>
       </c>
       <c r="B783" t="n">
         <v>1</v>
@@ -32564,7 +32564,7 @@
     </row>
     <row r="784">
       <c r="A784" t="n">
-        <v>999</v>
+        <v>783</v>
       </c>
       <c r="B784" t="n">
         <v>1</v>
@@ -32605,7 +32605,7 @@
     </row>
     <row r="785">
       <c r="A785" t="n">
-        <v>1000</v>
+        <v>784</v>
       </c>
       <c r="B785" t="n">
         <v>1</v>
@@ -32646,7 +32646,7 @@
     </row>
     <row r="786">
       <c r="A786" t="n">
-        <v>1001</v>
+        <v>785</v>
       </c>
       <c r="B786" t="n">
         <v>1</v>
@@ -32687,7 +32687,7 @@
     </row>
     <row r="787">
       <c r="A787" t="n">
-        <v>1002</v>
+        <v>786</v>
       </c>
       <c r="B787" t="n">
         <v>1</v>
@@ -32728,7 +32728,7 @@
     </row>
     <row r="788">
       <c r="A788" t="n">
-        <v>1003</v>
+        <v>787</v>
       </c>
       <c r="B788" t="n">
         <v>1</v>
@@ -32769,7 +32769,7 @@
     </row>
     <row r="789">
       <c r="A789" t="n">
-        <v>1004</v>
+        <v>788</v>
       </c>
       <c r="B789" t="n">
         <v>1</v>
@@ -32810,7 +32810,7 @@
     </row>
     <row r="790">
       <c r="A790" t="n">
-        <v>1005</v>
+        <v>789</v>
       </c>
       <c r="B790" t="n">
         <v>1</v>
@@ -32851,7 +32851,7 @@
     </row>
     <row r="791">
       <c r="A791" t="n">
-        <v>1006</v>
+        <v>790</v>
       </c>
       <c r="B791" t="n">
         <v>1</v>
@@ -32892,7 +32892,7 @@
     </row>
     <row r="792">
       <c r="A792" t="n">
-        <v>1007</v>
+        <v>791</v>
       </c>
       <c r="B792" t="n">
         <v>1</v>
@@ -32933,7 +32933,7 @@
     </row>
     <row r="793">
       <c r="A793" t="n">
-        <v>1008</v>
+        <v>792</v>
       </c>
       <c r="B793" t="n">
         <v>1</v>
@@ -32974,7 +32974,7 @@
     </row>
     <row r="794">
       <c r="A794" t="n">
-        <v>1063</v>
+        <v>793</v>
       </c>
       <c r="B794" t="n">
         <v>1</v>
@@ -33015,7 +33015,7 @@
     </row>
     <row r="795">
       <c r="A795" t="n">
-        <v>1064</v>
+        <v>794</v>
       </c>
       <c r="B795" t="n">
         <v>1</v>
@@ -33056,7 +33056,7 @@
     </row>
     <row r="796">
       <c r="A796" t="n">
-        <v>1065</v>
+        <v>795</v>
       </c>
       <c r="B796" t="n">
         <v>1</v>
@@ -33097,7 +33097,7 @@
     </row>
     <row r="797">
       <c r="A797" t="n">
-        <v>1066</v>
+        <v>796</v>
       </c>
       <c r="B797" t="n">
         <v>1</v>
@@ -33138,7 +33138,7 @@
     </row>
     <row r="798">
       <c r="A798" t="n">
-        <v>1067</v>
+        <v>797</v>
       </c>
       <c r="B798" t="n">
         <v>1</v>
@@ -33179,7 +33179,7 @@
     </row>
     <row r="799">
       <c r="A799" t="n">
-        <v>1068</v>
+        <v>798</v>
       </c>
       <c r="B799" t="n">
         <v>1</v>
@@ -33220,7 +33220,7 @@
     </row>
     <row r="800">
       <c r="A800" t="n">
-        <v>1069</v>
+        <v>799</v>
       </c>
       <c r="B800" t="n">
         <v>1</v>
@@ -33261,7 +33261,7 @@
     </row>
     <row r="801">
       <c r="A801" t="n">
-        <v>1070</v>
+        <v>800</v>
       </c>
       <c r="B801" t="n">
         <v>1</v>
@@ -33302,7 +33302,7 @@
     </row>
     <row r="802">
       <c r="A802" t="n">
-        <v>1071</v>
+        <v>801</v>
       </c>
       <c r="B802" t="n">
         <v>1</v>
@@ -33343,7 +33343,7 @@
     </row>
     <row r="803">
       <c r="A803" t="n">
-        <v>1072</v>
+        <v>802</v>
       </c>
       <c r="B803" t="n">
         <v>1</v>
@@ -33384,7 +33384,7 @@
     </row>
     <row r="804">
       <c r="A804" t="n">
-        <v>1073</v>
+        <v>803</v>
       </c>
       <c r="B804" t="n">
         <v>1</v>
@@ -33425,7 +33425,7 @@
     </row>
     <row r="805">
       <c r="A805" t="n">
-        <v>1074</v>
+        <v>804</v>
       </c>
       <c r="B805" t="n">
         <v>1</v>
@@ -33466,7 +33466,7 @@
     </row>
     <row r="806">
       <c r="A806" t="n">
-        <v>1075</v>
+        <v>805</v>
       </c>
       <c r="B806" t="n">
         <v>1</v>
@@ -33507,7 +33507,7 @@
     </row>
     <row r="807">
       <c r="A807" t="n">
-        <v>1076</v>
+        <v>806</v>
       </c>
       <c r="B807" t="n">
         <v>1</v>
@@ -33548,7 +33548,7 @@
     </row>
     <row r="808">
       <c r="A808" t="n">
-        <v>1077</v>
+        <v>807</v>
       </c>
       <c r="B808" t="n">
         <v>1</v>
@@ -33589,7 +33589,7 @@
     </row>
     <row r="809">
       <c r="A809" t="n">
-        <v>1078</v>
+        <v>808</v>
       </c>
       <c r="B809" t="n">
         <v>1</v>
@@ -33630,7 +33630,7 @@
     </row>
     <row r="810">
       <c r="A810" t="n">
-        <v>1079</v>
+        <v>809</v>
       </c>
       <c r="B810" t="n">
         <v>1</v>
@@ -33671,7 +33671,7 @@
     </row>
     <row r="811">
       <c r="A811" t="n">
-        <v>1080</v>
+        <v>810</v>
       </c>
       <c r="B811" t="n">
         <v>1</v>
@@ -33712,7 +33712,7 @@
     </row>
     <row r="812">
       <c r="A812" t="n">
-        <v>1135</v>
+        <v>811</v>
       </c>
       <c r="B812" t="n">
         <v>1</v>
@@ -33753,7 +33753,7 @@
     </row>
     <row r="813">
       <c r="A813" t="n">
-        <v>1136</v>
+        <v>812</v>
       </c>
       <c r="B813" t="n">
         <v>1</v>
@@ -33794,7 +33794,7 @@
     </row>
     <row r="814">
       <c r="A814" t="n">
-        <v>1137</v>
+        <v>813</v>
       </c>
       <c r="B814" t="n">
         <v>1</v>
@@ -33835,7 +33835,7 @@
     </row>
     <row r="815">
       <c r="A815" t="n">
-        <v>1138</v>
+        <v>814</v>
       </c>
       <c r="B815" t="n">
         <v>1</v>
@@ -33876,7 +33876,7 @@
     </row>
     <row r="816">
       <c r="A816" t="n">
-        <v>1139</v>
+        <v>815</v>
       </c>
       <c r="B816" t="n">
         <v>1</v>
@@ -33917,7 +33917,7 @@
     </row>
     <row r="817">
       <c r="A817" t="n">
-        <v>1140</v>
+        <v>816</v>
       </c>
       <c r="B817" t="n">
         <v>1</v>
@@ -33958,7 +33958,7 @@
     </row>
     <row r="818">
       <c r="A818" t="n">
-        <v>1141</v>
+        <v>817</v>
       </c>
       <c r="B818" t="n">
         <v>1</v>
@@ -33999,7 +33999,7 @@
     </row>
     <row r="819">
       <c r="A819" t="n">
-        <v>1142</v>
+        <v>818</v>
       </c>
       <c r="B819" t="n">
         <v>1</v>
@@ -34040,7 +34040,7 @@
     </row>
     <row r="820">
       <c r="A820" t="n">
-        <v>1143</v>
+        <v>819</v>
       </c>
       <c r="B820" t="n">
         <v>1</v>
@@ -34081,7 +34081,7 @@
     </row>
     <row r="821">
       <c r="A821" t="n">
-        <v>1144</v>
+        <v>820</v>
       </c>
       <c r="B821" t="n">
         <v>1</v>
@@ -34122,7 +34122,7 @@
     </row>
     <row r="822">
       <c r="A822" t="n">
-        <v>1145</v>
+        <v>821</v>
       </c>
       <c r="B822" t="n">
         <v>1</v>
@@ -34163,7 +34163,7 @@
     </row>
     <row r="823">
       <c r="A823" t="n">
-        <v>1146</v>
+        <v>822</v>
       </c>
       <c r="B823" t="n">
         <v>1</v>
@@ -34204,7 +34204,7 @@
     </row>
     <row r="824">
       <c r="A824" t="n">
-        <v>1147</v>
+        <v>823</v>
       </c>
       <c r="B824" t="n">
         <v>1</v>
@@ -34245,7 +34245,7 @@
     </row>
     <row r="825">
       <c r="A825" t="n">
-        <v>1148</v>
+        <v>824</v>
       </c>
       <c r="B825" t="n">
         <v>1</v>
@@ -34286,7 +34286,7 @@
     </row>
     <row r="826">
       <c r="A826" t="n">
-        <v>1149</v>
+        <v>825</v>
       </c>
       <c r="B826" t="n">
         <v>1</v>
@@ -34327,7 +34327,7 @@
     </row>
     <row r="827">
       <c r="A827" t="n">
-        <v>1150</v>
+        <v>826</v>
       </c>
       <c r="B827" t="n">
         <v>1</v>
@@ -34368,7 +34368,7 @@
     </row>
     <row r="828">
       <c r="A828" t="n">
-        <v>1151</v>
+        <v>827</v>
       </c>
       <c r="B828" t="n">
         <v>1</v>
@@ -34409,7 +34409,7 @@
     </row>
     <row r="829">
       <c r="A829" t="n">
-        <v>1152</v>
+        <v>828</v>
       </c>
       <c r="B829" t="n">
         <v>1</v>
@@ -34450,7 +34450,7 @@
     </row>
     <row r="830">
       <c r="A830" t="n">
-        <v>1207</v>
+        <v>829</v>
       </c>
       <c r="B830" t="n">
         <v>1</v>
@@ -34491,7 +34491,7 @@
     </row>
     <row r="831">
       <c r="A831" t="n">
-        <v>1208</v>
+        <v>830</v>
       </c>
       <c r="B831" t="n">
         <v>1</v>
@@ -34532,7 +34532,7 @@
     </row>
     <row r="832">
       <c r="A832" t="n">
-        <v>1209</v>
+        <v>831</v>
       </c>
       <c r="B832" t="n">
         <v>1</v>
@@ -34573,7 +34573,7 @@
     </row>
     <row r="833">
       <c r="A833" t="n">
-        <v>1210</v>
+        <v>832</v>
       </c>
       <c r="B833" t="n">
         <v>1</v>
@@ -34614,7 +34614,7 @@
     </row>
     <row r="834">
       <c r="A834" t="n">
-        <v>1211</v>
+        <v>833</v>
       </c>
       <c r="B834" t="n">
         <v>1</v>
@@ -34655,7 +34655,7 @@
     </row>
     <row r="835">
       <c r="A835" t="n">
-        <v>1212</v>
+        <v>834</v>
       </c>
       <c r="B835" t="n">
         <v>1</v>
@@ -34696,7 +34696,7 @@
     </row>
     <row r="836">
       <c r="A836" t="n">
-        <v>1213</v>
+        <v>835</v>
       </c>
       <c r="B836" t="n">
         <v>1</v>
@@ -34737,7 +34737,7 @@
     </row>
     <row r="837">
       <c r="A837" t="n">
-        <v>1214</v>
+        <v>836</v>
       </c>
       <c r="B837" t="n">
         <v>1</v>
@@ -34778,7 +34778,7 @@
     </row>
     <row r="838">
       <c r="A838" t="n">
-        <v>1215</v>
+        <v>837</v>
       </c>
       <c r="B838" t="n">
         <v>1</v>
@@ -34819,7 +34819,7 @@
     </row>
     <row r="839">
       <c r="A839" t="n">
-        <v>1216</v>
+        <v>838</v>
       </c>
       <c r="B839" t="n">
         <v>1</v>
@@ -34860,7 +34860,7 @@
     </row>
     <row r="840">
       <c r="A840" t="n">
-        <v>1217</v>
+        <v>839</v>
       </c>
       <c r="B840" t="n">
         <v>1</v>
@@ -34901,7 +34901,7 @@
     </row>
     <row r="841">
       <c r="A841" t="n">
-        <v>1218</v>
+        <v>840</v>
       </c>
       <c r="B841" t="n">
         <v>1</v>
@@ -34942,7 +34942,7 @@
     </row>
     <row r="842">
       <c r="A842" t="n">
-        <v>1219</v>
+        <v>841</v>
       </c>
       <c r="B842" t="n">
         <v>1</v>
@@ -34983,7 +34983,7 @@
     </row>
     <row r="843">
       <c r="A843" t="n">
-        <v>1220</v>
+        <v>842</v>
       </c>
       <c r="B843" t="n">
         <v>1</v>
@@ -35024,7 +35024,7 @@
     </row>
     <row r="844">
       <c r="A844" t="n">
-        <v>1221</v>
+        <v>843</v>
       </c>
       <c r="B844" t="n">
         <v>1</v>
@@ -35065,7 +35065,7 @@
     </row>
     <row r="845">
       <c r="A845" t="n">
-        <v>1222</v>
+        <v>844</v>
       </c>
       <c r="B845" t="n">
         <v>1</v>
@@ -35106,7 +35106,7 @@
     </row>
     <row r="846">
       <c r="A846" t="n">
-        <v>1223</v>
+        <v>845</v>
       </c>
       <c r="B846" t="n">
         <v>1</v>
@@ -35147,7 +35147,7 @@
     </row>
     <row r="847">
       <c r="A847" t="n">
-        <v>1224</v>
+        <v>846</v>
       </c>
       <c r="B847" t="n">
         <v>1</v>
@@ -35188,7 +35188,7 @@
     </row>
     <row r="848">
       <c r="A848" t="n">
-        <v>1279</v>
+        <v>847</v>
       </c>
       <c r="B848" t="n">
         <v>1</v>
@@ -35229,7 +35229,7 @@
     </row>
     <row r="849">
       <c r="A849" t="n">
-        <v>1280</v>
+        <v>848</v>
       </c>
       <c r="B849" t="n">
         <v>1</v>
@@ -35270,7 +35270,7 @@
     </row>
     <row r="850">
       <c r="A850" t="n">
-        <v>1281</v>
+        <v>849</v>
       </c>
       <c r="B850" t="n">
         <v>1</v>
@@ -35311,7 +35311,7 @@
     </row>
     <row r="851">
       <c r="A851" t="n">
-        <v>1282</v>
+        <v>850</v>
       </c>
       <c r="B851" t="n">
         <v>1</v>
@@ -35352,7 +35352,7 @@
     </row>
     <row r="852">
       <c r="A852" t="n">
-        <v>1283</v>
+        <v>851</v>
       </c>
       <c r="B852" t="n">
         <v>1</v>
@@ -35393,7 +35393,7 @@
     </row>
     <row r="853">
       <c r="A853" t="n">
-        <v>1284</v>
+        <v>852</v>
       </c>
       <c r="B853" t="n">
         <v>1</v>
@@ -35434,7 +35434,7 @@
     </row>
     <row r="854">
       <c r="A854" t="n">
-        <v>1285</v>
+        <v>853</v>
       </c>
       <c r="B854" t="n">
         <v>1</v>
@@ -35475,7 +35475,7 @@
     </row>
     <row r="855">
       <c r="A855" t="n">
-        <v>1286</v>
+        <v>854</v>
       </c>
       <c r="B855" t="n">
         <v>1</v>
@@ -35516,7 +35516,7 @@
     </row>
     <row r="856">
       <c r="A856" t="n">
-        <v>1287</v>
+        <v>855</v>
       </c>
       <c r="B856" t="n">
         <v>1</v>
@@ -35557,7 +35557,7 @@
     </row>
     <row r="857">
       <c r="A857" t="n">
-        <v>1288</v>
+        <v>856</v>
       </c>
       <c r="B857" t="n">
         <v>1</v>
@@ -35598,7 +35598,7 @@
     </row>
     <row r="858">
       <c r="A858" t="n">
-        <v>1289</v>
+        <v>857</v>
       </c>
       <c r="B858" t="n">
         <v>1</v>
@@ -35639,7 +35639,7 @@
     </row>
     <row r="859">
       <c r="A859" t="n">
-        <v>1290</v>
+        <v>858</v>
       </c>
       <c r="B859" t="n">
         <v>1</v>
@@ -35680,7 +35680,7 @@
     </row>
     <row r="860">
       <c r="A860" t="n">
-        <v>1291</v>
+        <v>859</v>
       </c>
       <c r="B860" t="n">
         <v>1</v>
@@ -35721,7 +35721,7 @@
     </row>
     <row r="861">
       <c r="A861" t="n">
-        <v>1292</v>
+        <v>860</v>
       </c>
       <c r="B861" t="n">
         <v>1</v>
@@ -35762,7 +35762,7 @@
     </row>
     <row r="862">
       <c r="A862" t="n">
-        <v>1293</v>
+        <v>861</v>
       </c>
       <c r="B862" t="n">
         <v>1</v>
@@ -35803,7 +35803,7 @@
     </row>
     <row r="863">
       <c r="A863" t="n">
-        <v>1294</v>
+        <v>862</v>
       </c>
       <c r="B863" t="n">
         <v>1</v>
@@ -35844,7 +35844,7 @@
     </row>
     <row r="864">
       <c r="A864" t="n">
-        <v>1295</v>
+        <v>863</v>
       </c>
       <c r="B864" t="n">
         <v>1</v>
@@ -35885,7 +35885,7 @@
     </row>
     <row r="865">
       <c r="A865" t="n">
-        <v>1296</v>
+        <v>864</v>
       </c>
       <c r="B865" t="n">
         <v>1</v>
@@ -35926,7 +35926,7 @@
     </row>
     <row r="866">
       <c r="A866" t="n">
-        <v>1351</v>
+        <v>865</v>
       </c>
       <c r="B866" t="n">
         <v>1</v>
@@ -35967,7 +35967,7 @@
     </row>
     <row r="867">
       <c r="A867" t="n">
-        <v>1352</v>
+        <v>866</v>
       </c>
       <c r="B867" t="n">
         <v>1</v>
@@ -36008,7 +36008,7 @@
     </row>
     <row r="868">
       <c r="A868" t="n">
-        <v>1353</v>
+        <v>867</v>
       </c>
       <c r="B868" t="n">
         <v>1</v>
@@ -36049,7 +36049,7 @@
     </row>
     <row r="869">
       <c r="A869" t="n">
-        <v>1354</v>
+        <v>868</v>
       </c>
       <c r="B869" t="n">
         <v>1</v>
@@ -36090,7 +36090,7 @@
     </row>
     <row r="870">
       <c r="A870" t="n">
-        <v>1355</v>
+        <v>869</v>
       </c>
       <c r="B870" t="n">
         <v>1</v>
@@ -36131,7 +36131,7 @@
     </row>
     <row r="871">
       <c r="A871" t="n">
-        <v>1356</v>
+        <v>870</v>
       </c>
       <c r="B871" t="n">
         <v>1</v>
@@ -36172,7 +36172,7 @@
     </row>
     <row r="872">
       <c r="A872" t="n">
-        <v>1357</v>
+        <v>871</v>
       </c>
       <c r="B872" t="n">
         <v>1</v>
@@ -36213,7 +36213,7 @@
     </row>
     <row r="873">
       <c r="A873" t="n">
-        <v>1358</v>
+        <v>872</v>
       </c>
       <c r="B873" t="n">
         <v>1</v>
@@ -36254,7 +36254,7 @@
     </row>
     <row r="874">
       <c r="A874" t="n">
-        <v>1359</v>
+        <v>873</v>
       </c>
       <c r="B874" t="n">
         <v>1</v>
@@ -36295,7 +36295,7 @@
     </row>
     <row r="875">
       <c r="A875" t="n">
-        <v>1360</v>
+        <v>874</v>
       </c>
       <c r="B875" t="n">
         <v>1</v>
@@ -36336,7 +36336,7 @@
     </row>
     <row r="876">
       <c r="A876" t="n">
-        <v>1361</v>
+        <v>875</v>
       </c>
       <c r="B876" t="n">
         <v>1</v>
@@ -36377,7 +36377,7 @@
     </row>
     <row r="877">
       <c r="A877" t="n">
-        <v>1362</v>
+        <v>876</v>
       </c>
       <c r="B877" t="n">
         <v>1</v>
@@ -36418,7 +36418,7 @@
     </row>
     <row r="878">
       <c r="A878" t="n">
-        <v>1363</v>
+        <v>877</v>
       </c>
       <c r="B878" t="n">
         <v>1</v>
@@ -36459,7 +36459,7 @@
     </row>
     <row r="879">
       <c r="A879" t="n">
-        <v>1364</v>
+        <v>878</v>
       </c>
       <c r="B879" t="n">
         <v>1</v>
@@ -36500,7 +36500,7 @@
     </row>
     <row r="880">
       <c r="A880" t="n">
-        <v>1365</v>
+        <v>879</v>
       </c>
       <c r="B880" t="n">
         <v>1</v>
@@ -36541,7 +36541,7 @@
     </row>
     <row r="881">
       <c r="A881" t="n">
-        <v>1366</v>
+        <v>880</v>
       </c>
       <c r="B881" t="n">
         <v>1</v>
@@ -36582,7 +36582,7 @@
     </row>
     <row r="882">
       <c r="A882" t="n">
-        <v>1367</v>
+        <v>881</v>
       </c>
       <c r="B882" t="n">
         <v>1</v>
@@ -36623,7 +36623,7 @@
     </row>
     <row r="883">
       <c r="A883" t="n">
-        <v>1368</v>
+        <v>882</v>
       </c>
       <c r="B883" t="n">
         <v>1</v>
@@ -36664,7 +36664,7 @@
     </row>
     <row r="884">
       <c r="A884" t="n">
-        <v>1423</v>
+        <v>883</v>
       </c>
       <c r="B884" t="n">
         <v>1</v>
@@ -36705,7 +36705,7 @@
     </row>
     <row r="885">
       <c r="A885" t="n">
-        <v>1424</v>
+        <v>884</v>
       </c>
       <c r="B885" t="n">
         <v>1</v>
@@ -36746,7 +36746,7 @@
     </row>
     <row r="886">
       <c r="A886" t="n">
-        <v>1425</v>
+        <v>885</v>
       </c>
       <c r="B886" t="n">
         <v>1</v>
@@ -36787,7 +36787,7 @@
     </row>
     <row r="887">
       <c r="A887" t="n">
-        <v>1426</v>
+        <v>886</v>
       </c>
       <c r="B887" t="n">
         <v>1</v>
@@ -36828,7 +36828,7 @@
     </row>
     <row r="888">
       <c r="A888" t="n">
-        <v>1427</v>
+        <v>887</v>
       </c>
       <c r="B888" t="n">
         <v>1</v>
@@ -36869,7 +36869,7 @@
     </row>
     <row r="889">
       <c r="A889" t="n">
-        <v>1428</v>
+        <v>888</v>
       </c>
       <c r="B889" t="n">
         <v>1</v>
@@ -36910,7 +36910,7 @@
     </row>
     <row r="890">
       <c r="A890" t="n">
-        <v>1429</v>
+        <v>889</v>
       </c>
       <c r="B890" t="n">
         <v>1</v>
@@ -36951,7 +36951,7 @@
     </row>
     <row r="891">
       <c r="A891" t="n">
-        <v>1430</v>
+        <v>890</v>
       </c>
       <c r="B891" t="n">
         <v>1</v>
@@ -36992,7 +36992,7 @@
     </row>
     <row r="892">
       <c r="A892" t="n">
-        <v>1431</v>
+        <v>891</v>
       </c>
       <c r="B892" t="n">
         <v>1</v>
@@ -37033,7 +37033,7 @@
     </row>
     <row r="893">
       <c r="A893" t="n">
-        <v>1432</v>
+        <v>892</v>
       </c>
       <c r="B893" t="n">
         <v>1</v>
@@ -37074,7 +37074,7 @@
     </row>
     <row r="894">
       <c r="A894" t="n">
-        <v>1433</v>
+        <v>893</v>
       </c>
       <c r="B894" t="n">
         <v>1</v>
@@ -37115,7 +37115,7 @@
     </row>
     <row r="895">
       <c r="A895" t="n">
-        <v>1434</v>
+        <v>894</v>
       </c>
       <c r="B895" t="n">
         <v>1</v>
@@ -37156,7 +37156,7 @@
     </row>
     <row r="896">
       <c r="A896" t="n">
-        <v>1435</v>
+        <v>895</v>
       </c>
       <c r="B896" t="n">
         <v>1</v>
@@ -37197,7 +37197,7 @@
     </row>
     <row r="897">
       <c r="A897" t="n">
-        <v>1436</v>
+        <v>896</v>
       </c>
       <c r="B897" t="n">
         <v>1</v>
@@ -37238,7 +37238,7 @@
     </row>
     <row r="898">
       <c r="A898" t="n">
-        <v>1437</v>
+        <v>897</v>
       </c>
       <c r="B898" t="n">
         <v>1</v>
@@ -37279,7 +37279,7 @@
     </row>
     <row r="899">
       <c r="A899" t="n">
-        <v>1438</v>
+        <v>898</v>
       </c>
       <c r="B899" t="n">
         <v>1</v>
@@ -37320,7 +37320,7 @@
     </row>
     <row r="900">
       <c r="A900" t="n">
-        <v>1439</v>
+        <v>899</v>
       </c>
       <c r="B900" t="n">
         <v>1</v>
@@ -37361,7 +37361,7 @@
     </row>
     <row r="901">
       <c r="A901" t="n">
-        <v>1440</v>
+        <v>900</v>
       </c>
       <c r="B901" t="n">
         <v>1</v>
@@ -37402,7 +37402,7 @@
     </row>
     <row r="902">
       <c r="A902" t="n">
-        <v>1495</v>
+        <v>901</v>
       </c>
       <c r="B902" t="n">
         <v>1</v>
@@ -37443,7 +37443,7 @@
     </row>
     <row r="903">
       <c r="A903" t="n">
-        <v>1496</v>
+        <v>902</v>
       </c>
       <c r="B903" t="n">
         <v>1</v>
@@ -37484,7 +37484,7 @@
     </row>
     <row r="904">
       <c r="A904" t="n">
-        <v>1497</v>
+        <v>903</v>
       </c>
       <c r="B904" t="n">
         <v>1</v>
@@ -37525,7 +37525,7 @@
     </row>
     <row r="905">
       <c r="A905" t="n">
-        <v>1498</v>
+        <v>904</v>
       </c>
       <c r="B905" t="n">
         <v>1</v>
@@ -37566,7 +37566,7 @@
     </row>
     <row r="906">
       <c r="A906" t="n">
-        <v>1499</v>
+        <v>905</v>
       </c>
       <c r="B906" t="n">
         <v>1</v>
@@ -37607,7 +37607,7 @@
     </row>
     <row r="907">
       <c r="A907" t="n">
-        <v>1500</v>
+        <v>906</v>
       </c>
       <c r="B907" t="n">
         <v>1</v>
@@ -37648,7 +37648,7 @@
     </row>
     <row r="908">
       <c r="A908" t="n">
-        <v>1501</v>
+        <v>907</v>
       </c>
       <c r="B908" t="n">
         <v>1</v>
@@ -37689,7 +37689,7 @@
     </row>
     <row r="909">
       <c r="A909" t="n">
-        <v>1502</v>
+        <v>908</v>
       </c>
       <c r="B909" t="n">
         <v>1</v>
@@ -37730,7 +37730,7 @@
     </row>
     <row r="910">
       <c r="A910" t="n">
-        <v>1503</v>
+        <v>909</v>
       </c>
       <c r="B910" t="n">
         <v>1</v>
@@ -37771,7 +37771,7 @@
     </row>
     <row r="911">
       <c r="A911" t="n">
-        <v>1504</v>
+        <v>910</v>
       </c>
       <c r="B911" t="n">
         <v>1</v>
@@ -37812,7 +37812,7 @@
     </row>
     <row r="912">
       <c r="A912" t="n">
-        <v>1505</v>
+        <v>911</v>
       </c>
       <c r="B912" t="n">
         <v>1</v>
@@ -37853,7 +37853,7 @@
     </row>
     <row r="913">
       <c r="A913" t="n">
-        <v>1506</v>
+        <v>912</v>
       </c>
       <c r="B913" t="n">
         <v>1</v>
@@ -37894,7 +37894,7 @@
     </row>
     <row r="914">
       <c r="A914" t="n">
-        <v>1507</v>
+        <v>913</v>
       </c>
       <c r="B914" t="n">
         <v>1</v>
@@ -37935,7 +37935,7 @@
     </row>
     <row r="915">
       <c r="A915" t="n">
-        <v>1508</v>
+        <v>914</v>
       </c>
       <c r="B915" t="n">
         <v>1</v>
@@ -37976,7 +37976,7 @@
     </row>
     <row r="916">
       <c r="A916" t="n">
-        <v>1509</v>
+        <v>915</v>
       </c>
       <c r="B916" t="n">
         <v>1</v>
@@ -38017,7 +38017,7 @@
     </row>
     <row r="917">
       <c r="A917" t="n">
-        <v>1510</v>
+        <v>916</v>
       </c>
       <c r="B917" t="n">
         <v>1</v>
@@ -38058,7 +38058,7 @@
     </row>
     <row r="918">
       <c r="A918" t="n">
-        <v>1511</v>
+        <v>917</v>
       </c>
       <c r="B918" t="n">
         <v>1</v>
@@ -38099,7 +38099,7 @@
     </row>
     <row r="919">
       <c r="A919" t="n">
-        <v>1512</v>
+        <v>918</v>
       </c>
       <c r="B919" t="n">
         <v>1</v>
@@ -38140,7 +38140,7 @@
     </row>
     <row r="920">
       <c r="A920" t="n">
-        <v>1567</v>
+        <v>919</v>
       </c>
       <c r="B920" t="n">
         <v>1</v>
@@ -38181,7 +38181,7 @@
     </row>
     <row r="921">
       <c r="A921" t="n">
-        <v>1568</v>
+        <v>920</v>
       </c>
       <c r="B921" t="n">
         <v>1</v>
@@ -38222,7 +38222,7 @@
     </row>
     <row r="922">
       <c r="A922" t="n">
-        <v>1569</v>
+        <v>921</v>
       </c>
       <c r="B922" t="n">
         <v>1</v>
@@ -38263,7 +38263,7 @@
     </row>
     <row r="923">
       <c r="A923" t="n">
-        <v>1570</v>
+        <v>922</v>
       </c>
       <c r="B923" t="n">
         <v>1</v>
@@ -38304,7 +38304,7 @@
     </row>
     <row r="924">
       <c r="A924" t="n">
-        <v>1571</v>
+        <v>923</v>
       </c>
       <c r="B924" t="n">
         <v>1</v>
@@ -38345,7 +38345,7 @@
     </row>
     <row r="925">
       <c r="A925" t="n">
-        <v>1572</v>
+        <v>924</v>
       </c>
       <c r="B925" t="n">
         <v>1</v>
@@ -38386,7 +38386,7 @@
     </row>
     <row r="926">
       <c r="A926" t="n">
-        <v>1573</v>
+        <v>925</v>
       </c>
       <c r="B926" t="n">
         <v>1</v>
@@ -38427,7 +38427,7 @@
     </row>
     <row r="927">
       <c r="A927" t="n">
-        <v>1574</v>
+        <v>926</v>
       </c>
       <c r="B927" t="n">
         <v>1</v>
@@ -38468,7 +38468,7 @@
     </row>
     <row r="928">
       <c r="A928" t="n">
-        <v>1575</v>
+        <v>927</v>
       </c>
       <c r="B928" t="n">
         <v>1</v>
@@ -38509,7 +38509,7 @@
     </row>
     <row r="929">
       <c r="A929" t="n">
-        <v>1576</v>
+        <v>928</v>
       </c>
       <c r="B929" t="n">
         <v>1</v>
@@ -38550,7 +38550,7 @@
     </row>
     <row r="930">
       <c r="A930" t="n">
-        <v>1577</v>
+        <v>929</v>
       </c>
       <c r="B930" t="n">
         <v>1</v>
@@ -38591,7 +38591,7 @@
     </row>
     <row r="931">
       <c r="A931" t="n">
-        <v>1578</v>
+        <v>930</v>
       </c>
       <c r="B931" t="n">
         <v>1</v>
@@ -38632,7 +38632,7 @@
     </row>
     <row r="932">
       <c r="A932" t="n">
-        <v>1579</v>
+        <v>931</v>
       </c>
       <c r="B932" t="n">
         <v>1</v>
@@ -38673,7 +38673,7 @@
     </row>
     <row r="933">
       <c r="A933" t="n">
-        <v>1580</v>
+        <v>932</v>
       </c>
       <c r="B933" t="n">
         <v>1</v>
@@ -38714,7 +38714,7 @@
     </row>
     <row r="934">
       <c r="A934" t="n">
-        <v>1581</v>
+        <v>933</v>
       </c>
       <c r="B934" t="n">
         <v>1</v>
@@ -38755,7 +38755,7 @@
     </row>
     <row r="935">
       <c r="A935" t="n">
-        <v>1582</v>
+        <v>934</v>
       </c>
       <c r="B935" t="n">
         <v>1</v>
@@ -38796,7 +38796,7 @@
     </row>
     <row r="936">
       <c r="A936" t="n">
-        <v>1583</v>
+        <v>935</v>
       </c>
       <c r="B936" t="n">
         <v>1</v>
@@ -38837,7 +38837,7 @@
     </row>
     <row r="937">
       <c r="A937" t="n">
-        <v>1584</v>
+        <v>936</v>
       </c>
       <c r="B937" t="n">
         <v>1</v>
@@ -38878,7 +38878,7 @@
     </row>
     <row r="938">
       <c r="A938" t="n">
-        <v>1639</v>
+        <v>937</v>
       </c>
       <c r="B938" t="n">
         <v>1</v>
@@ -38919,7 +38919,7 @@
     </row>
     <row r="939">
       <c r="A939" t="n">
-        <v>1640</v>
+        <v>938</v>
       </c>
       <c r="B939" t="n">
         <v>1</v>
@@ -38960,7 +38960,7 @@
     </row>
     <row r="940">
       <c r="A940" t="n">
-        <v>1641</v>
+        <v>939</v>
       </c>
       <c r="B940" t="n">
         <v>1</v>
@@ -39001,7 +39001,7 @@
     </row>
     <row r="941">
       <c r="A941" t="n">
-        <v>1642</v>
+        <v>940</v>
       </c>
       <c r="B941" t="n">
         <v>1</v>
@@ -39042,7 +39042,7 @@
     </row>
     <row r="942">
       <c r="A942" t="n">
-        <v>1643</v>
+        <v>941</v>
       </c>
       <c r="B942" t="n">
         <v>1</v>
@@ -39083,7 +39083,7 @@
     </row>
     <row r="943">
       <c r="A943" t="n">
-        <v>1644</v>
+        <v>942</v>
       </c>
       <c r="B943" t="n">
         <v>1</v>
@@ -39124,7 +39124,7 @@
     </row>
     <row r="944">
       <c r="A944" t="n">
-        <v>1645</v>
+        <v>943</v>
       </c>
       <c r="B944" t="n">
         <v>1</v>
@@ -39165,7 +39165,7 @@
     </row>
     <row r="945">
       <c r="A945" t="n">
-        <v>1646</v>
+        <v>944</v>
       </c>
       <c r="B945" t="n">
         <v>1</v>
@@ -39206,7 +39206,7 @@
     </row>
     <row r="946">
       <c r="A946" t="n">
-        <v>1647</v>
+        <v>945</v>
       </c>
       <c r="B946" t="n">
         <v>1</v>
@@ -39247,7 +39247,7 @@
     </row>
     <row r="947">
       <c r="A947" t="n">
-        <v>1648</v>
+        <v>946</v>
       </c>
       <c r="B947" t="n">
         <v>1</v>
@@ -39288,7 +39288,7 @@
     </row>
     <row r="948">
       <c r="A948" t="n">
-        <v>1649</v>
+        <v>947</v>
       </c>
       <c r="B948" t="n">
         <v>1</v>
@@ -39329,7 +39329,7 @@
     </row>
     <row r="949">
       <c r="A949" t="n">
-        <v>1650</v>
+        <v>948</v>
       </c>
       <c r="B949" t="n">
         <v>1</v>
@@ -39370,7 +39370,7 @@
     </row>
     <row r="950">
       <c r="A950" t="n">
-        <v>1651</v>
+        <v>949</v>
       </c>
       <c r="B950" t="n">
         <v>1</v>
@@ -39411,7 +39411,7 @@
     </row>
     <row r="951">
       <c r="A951" t="n">
-        <v>1652</v>
+        <v>950</v>
       </c>
       <c r="B951" t="n">
         <v>1</v>
@@ -39452,7 +39452,7 @@
     </row>
     <row r="952">
       <c r="A952" t="n">
-        <v>1653</v>
+        <v>951</v>
       </c>
       <c r="B952" t="n">
         <v>1</v>
@@ -39493,7 +39493,7 @@
     </row>
     <row r="953">
       <c r="A953" t="n">
-        <v>1654</v>
+        <v>952</v>
       </c>
       <c r="B953" t="n">
         <v>1</v>
@@ -39534,7 +39534,7 @@
     </row>
     <row r="954">
       <c r="A954" t="n">
-        <v>1655</v>
+        <v>953</v>
       </c>
       <c r="B954" t="n">
         <v>1</v>
@@ -39575,7 +39575,7 @@
     </row>
     <row r="955">
       <c r="A955" t="n">
-        <v>1656</v>
+        <v>954</v>
       </c>
       <c r="B955" t="n">
         <v>1</v>
@@ -39616,7 +39616,7 @@
     </row>
     <row r="956">
       <c r="A956" t="n">
-        <v>1711</v>
+        <v>955</v>
       </c>
       <c r="B956" t="n">
         <v>1</v>
@@ -39657,7 +39657,7 @@
     </row>
     <row r="957">
       <c r="A957" t="n">
-        <v>1712</v>
+        <v>956</v>
       </c>
       <c r="B957" t="n">
         <v>1</v>
@@ -39698,7 +39698,7 @@
     </row>
     <row r="958">
       <c r="A958" t="n">
-        <v>1713</v>
+        <v>957</v>
       </c>
       <c r="B958" t="n">
         <v>1</v>
@@ -39739,7 +39739,7 @@
     </row>
     <row r="959">
       <c r="A959" t="n">
-        <v>1714</v>
+        <v>958</v>
       </c>
       <c r="B959" t="n">
         <v>1</v>
@@ -39780,7 +39780,7 @@
     </row>
     <row r="960">
       <c r="A960" t="n">
-        <v>1715</v>
+        <v>959</v>
       </c>
       <c r="B960" t="n">
         <v>1</v>
@@ -39821,7 +39821,7 @@
     </row>
     <row r="961">
       <c r="A961" t="n">
-        <v>1716</v>
+        <v>960</v>
       </c>
       <c r="B961" t="n">
         <v>1</v>
@@ -39862,7 +39862,7 @@
     </row>
     <row r="962">
       <c r="A962" t="n">
-        <v>1717</v>
+        <v>961</v>
       </c>
       <c r="B962" t="n">
         <v>1</v>
@@ -39903,7 +39903,7 @@
     </row>
     <row r="963">
       <c r="A963" t="n">
-        <v>1718</v>
+        <v>962</v>
       </c>
       <c r="B963" t="n">
         <v>1</v>
@@ -39944,7 +39944,7 @@
     </row>
     <row r="964">
       <c r="A964" t="n">
-        <v>1719</v>
+        <v>963</v>
       </c>
       <c r="B964" t="n">
         <v>1</v>
@@ -39985,7 +39985,7 @@
     </row>
     <row r="965">
       <c r="A965" t="n">
-        <v>1720</v>
+        <v>964</v>
       </c>
       <c r="B965" t="n">
         <v>1</v>
@@ -40026,7 +40026,7 @@
     </row>
     <row r="966">
       <c r="A966" t="n">
-        <v>1721</v>
+        <v>965</v>
       </c>
       <c r="B966" t="n">
         <v>1</v>
@@ -40067,7 +40067,7 @@
     </row>
     <row r="967">
       <c r="A967" t="n">
-        <v>1722</v>
+        <v>966</v>
       </c>
       <c r="B967" t="n">
         <v>1</v>
@@ -40108,7 +40108,7 @@
     </row>
     <row r="968">
       <c r="A968" t="n">
-        <v>1723</v>
+        <v>967</v>
       </c>
       <c r="B968" t="n">
         <v>1</v>
@@ -40149,7 +40149,7 @@
     </row>
     <row r="969">
       <c r="A969" t="n">
-        <v>1724</v>
+        <v>968</v>
       </c>
       <c r="B969" t="n">
         <v>1</v>
@@ -40190,7 +40190,7 @@
     </row>
     <row r="970">
       <c r="A970" t="n">
-        <v>1725</v>
+        <v>969</v>
       </c>
       <c r="B970" t="n">
         <v>1</v>
@@ -40231,7 +40231,7 @@
     </row>
     <row r="971">
       <c r="A971" t="n">
-        <v>1726</v>
+        <v>970</v>
       </c>
       <c r="B971" t="n">
         <v>1</v>
@@ -40272,7 +40272,7 @@
     </row>
     <row r="972">
       <c r="A972" t="n">
-        <v>1727</v>
+        <v>971</v>
       </c>
       <c r="B972" t="n">
         <v>1</v>
@@ -40313,7 +40313,7 @@
     </row>
     <row r="973">
       <c r="A973" t="n">
-        <v>1728</v>
+        <v>972</v>
       </c>
       <c r="B973" t="n">
         <v>1</v>
@@ -40354,7 +40354,7 @@
     </row>
     <row r="974">
       <c r="A974" t="n">
-        <v>1783</v>
+        <v>973</v>
       </c>
       <c r="B974" t="n">
         <v>1</v>
@@ -40395,7 +40395,7 @@
     </row>
     <row r="975">
       <c r="A975" t="n">
-        <v>1784</v>
+        <v>974</v>
       </c>
       <c r="B975" t="n">
         <v>1</v>
@@ -40436,7 +40436,7 @@
     </row>
     <row r="976">
       <c r="A976" t="n">
-        <v>1785</v>
+        <v>975</v>
       </c>
       <c r="B976" t="n">
         <v>1</v>
@@ -40477,7 +40477,7 @@
     </row>
     <row r="977">
       <c r="A977" t="n">
-        <v>1786</v>
+        <v>976</v>
       </c>
       <c r="B977" t="n">
         <v>1</v>
@@ -40518,7 +40518,7 @@
     </row>
     <row r="978">
       <c r="A978" t="n">
-        <v>1787</v>
+        <v>977</v>
       </c>
       <c r="B978" t="n">
         <v>1</v>
@@ -40559,7 +40559,7 @@
     </row>
     <row r="979">
       <c r="A979" t="n">
-        <v>1788</v>
+        <v>978</v>
       </c>
       <c r="B979" t="n">
         <v>1</v>
@@ -40600,7 +40600,7 @@
     </row>
     <row r="980">
       <c r="A980" t="n">
-        <v>1789</v>
+        <v>979</v>
       </c>
       <c r="B980" t="n">
         <v>1</v>
@@ -40641,7 +40641,7 @@
     </row>
     <row r="981">
       <c r="A981" t="n">
-        <v>1790</v>
+        <v>980</v>
       </c>
       <c r="B981" t="n">
         <v>1</v>
@@ -40682,7 +40682,7 @@
     </row>
     <row r="982">
       <c r="A982" t="n">
-        <v>1791</v>
+        <v>981</v>
       </c>
       <c r="B982" t="n">
         <v>1</v>
@@ -40723,7 +40723,7 @@
     </row>
     <row r="983">
       <c r="A983" t="n">
-        <v>1792</v>
+        <v>982</v>
       </c>
       <c r="B983" t="n">
         <v>1</v>
@@ -40764,7 +40764,7 @@
     </row>
     <row r="984">
       <c r="A984" t="n">
-        <v>1793</v>
+        <v>983</v>
       </c>
       <c r="B984" t="n">
         <v>1</v>
@@ -40805,7 +40805,7 @@
     </row>
     <row r="985">
       <c r="A985" t="n">
-        <v>1794</v>
+        <v>984</v>
       </c>
       <c r="B985" t="n">
         <v>1</v>
@@ -40846,7 +40846,7 @@
     </row>
     <row r="986">
       <c r="A986" t="n">
-        <v>1795</v>
+        <v>985</v>
       </c>
       <c r="B986" t="n">
         <v>1</v>
@@ -40887,7 +40887,7 @@
     </row>
     <row r="987">
       <c r="A987" t="n">
-        <v>1796</v>
+        <v>986</v>
       </c>
       <c r="B987" t="n">
         <v>1</v>
@@ -40928,7 +40928,7 @@
     </row>
     <row r="988">
       <c r="A988" t="n">
-        <v>1797</v>
+        <v>987</v>
       </c>
       <c r="B988" t="n">
         <v>1</v>
@@ -40969,7 +40969,7 @@
     </row>
     <row r="989">
       <c r="A989" t="n">
-        <v>1798</v>
+        <v>988</v>
       </c>
       <c r="B989" t="n">
         <v>1</v>
@@ -41010,7 +41010,7 @@
     </row>
     <row r="990">
       <c r="A990" t="n">
-        <v>1799</v>
+        <v>989</v>
       </c>
       <c r="B990" t="n">
         <v>1</v>
@@ -41051,7 +41051,7 @@
     </row>
     <row r="991">
       <c r="A991" t="n">
-        <v>1800</v>
+        <v>990</v>
       </c>
       <c r="B991" t="n">
         <v>1</v>
@@ -41092,7 +41092,7 @@
     </row>
     <row r="992">
       <c r="A992" t="n">
-        <v>1855</v>
+        <v>991</v>
       </c>
       <c r="B992" t="n">
         <v>1</v>
@@ -41133,7 +41133,7 @@
     </row>
     <row r="993">
       <c r="A993" t="n">
-        <v>1856</v>
+        <v>992</v>
       </c>
       <c r="B993" t="n">
         <v>1</v>
@@ -41174,7 +41174,7 @@
     </row>
     <row r="994">
       <c r="A994" t="n">
-        <v>1857</v>
+        <v>993</v>
       </c>
       <c r="B994" t="n">
         <v>1</v>
@@ -41215,7 +41215,7 @@
     </row>
     <row r="995">
       <c r="A995" t="n">
-        <v>1858</v>
+        <v>994</v>
       </c>
       <c r="B995" t="n">
         <v>1</v>
@@ -41256,7 +41256,7 @@
     </row>
     <row r="996">
       <c r="A996" t="n">
-        <v>1859</v>
+        <v>995</v>
       </c>
       <c r="B996" t="n">
         <v>1</v>
@@ -41297,7 +41297,7 @@
     </row>
     <row r="997">
       <c r="A997" t="n">
-        <v>1860</v>
+        <v>996</v>
       </c>
       <c r="B997" t="n">
         <v>1</v>
@@ -41338,7 +41338,7 @@
     </row>
     <row r="998">
       <c r="A998" t="n">
-        <v>1861</v>
+        <v>997</v>
       </c>
       <c r="B998" t="n">
         <v>1</v>
@@ -41379,7 +41379,7 @@
     </row>
     <row r="999">
       <c r="A999" t="n">
-        <v>1862</v>
+        <v>998</v>
       </c>
       <c r="B999" t="n">
         <v>1</v>
@@ -41420,7 +41420,7 @@
     </row>
     <row r="1000">
       <c r="A1000" t="n">
-        <v>1863</v>
+        <v>999</v>
       </c>
       <c r="B1000" t="n">
         <v>1</v>
@@ -41461,7 +41461,7 @@
     </row>
     <row r="1001">
       <c r="A1001" t="n">
-        <v>1864</v>
+        <v>1000</v>
       </c>
       <c r="B1001" t="n">
         <v>1</v>
@@ -41502,7 +41502,7 @@
     </row>
     <row r="1002">
       <c r="A1002" t="n">
-        <v>1865</v>
+        <v>1001</v>
       </c>
       <c r="B1002" t="n">
         <v>1</v>
@@ -41543,7 +41543,7 @@
     </row>
     <row r="1003">
       <c r="A1003" t="n">
-        <v>1866</v>
+        <v>1002</v>
       </c>
       <c r="B1003" t="n">
         <v>1</v>
@@ -41584,7 +41584,7 @@
     </row>
     <row r="1004">
       <c r="A1004" t="n">
-        <v>1867</v>
+        <v>1003</v>
       </c>
       <c r="B1004" t="n">
         <v>1</v>
@@ -41625,7 +41625,7 @@
     </row>
     <row r="1005">
       <c r="A1005" t="n">
-        <v>1868</v>
+        <v>1004</v>
       </c>
       <c r="B1005" t="n">
         <v>1</v>
@@ -41666,7 +41666,7 @@
     </row>
     <row r="1006">
       <c r="A1006" t="n">
-        <v>1869</v>
+        <v>1005</v>
       </c>
       <c r="B1006" t="n">
         <v>1</v>
@@ -41707,7 +41707,7 @@
     </row>
     <row r="1007">
       <c r="A1007" t="n">
-        <v>1870</v>
+        <v>1006</v>
       </c>
       <c r="B1007" t="n">
         <v>1</v>
@@ -41748,7 +41748,7 @@
     </row>
     <row r="1008">
       <c r="A1008" t="n">
-        <v>1871</v>
+        <v>1007</v>
       </c>
       <c r="B1008" t="n">
         <v>1</v>
@@ -41789,7 +41789,7 @@
     </row>
     <row r="1009">
       <c r="A1009" t="n">
-        <v>1872</v>
+        <v>1008</v>
       </c>
       <c r="B1009" t="n">
         <v>1</v>
@@ -41830,7 +41830,7 @@
     </row>
     <row r="1010">
       <c r="A1010" t="n">
-        <v>1927</v>
+        <v>1009</v>
       </c>
       <c r="B1010" t="n">
         <v>1</v>
@@ -41871,7 +41871,7 @@
     </row>
     <row r="1011">
       <c r="A1011" t="n">
-        <v>1928</v>
+        <v>1010</v>
       </c>
       <c r="B1011" t="n">
         <v>1</v>
@@ -41912,7 +41912,7 @@
     </row>
     <row r="1012">
       <c r="A1012" t="n">
-        <v>1929</v>
+        <v>1011</v>
       </c>
       <c r="B1012" t="n">
         <v>1</v>
@@ -41953,7 +41953,7 @@
     </row>
     <row r="1013">
       <c r="A1013" t="n">
-        <v>1930</v>
+        <v>1012</v>
       </c>
       <c r="B1013" t="n">
         <v>1</v>
@@ -41994,7 +41994,7 @@
     </row>
     <row r="1014">
       <c r="A1014" t="n">
-        <v>1931</v>
+        <v>1013</v>
       </c>
       <c r="B1014" t="n">
         <v>1</v>
@@ -42035,7 +42035,7 @@
     </row>
     <row r="1015">
       <c r="A1015" t="n">
-        <v>1932</v>
+        <v>1014</v>
       </c>
       <c r="B1015" t="n">
         <v>1</v>
@@ -42076,7 +42076,7 @@
     </row>
     <row r="1016">
       <c r="A1016" t="n">
-        <v>1933</v>
+        <v>1015</v>
       </c>
       <c r="B1016" t="n">
         <v>1</v>
@@ -42117,7 +42117,7 @@
     </row>
     <row r="1017">
       <c r="A1017" t="n">
-        <v>1934</v>
+        <v>1016</v>
       </c>
       <c r="B1017" t="n">
         <v>1</v>
@@ -42158,7 +42158,7 @@
     </row>
     <row r="1018">
       <c r="A1018" t="n">
-        <v>1935</v>
+        <v>1017</v>
       </c>
       <c r="B1018" t="n">
         <v>1</v>
@@ -42199,7 +42199,7 @@
     </row>
     <row r="1019">
       <c r="A1019" t="n">
-        <v>1936</v>
+        <v>1018</v>
       </c>
       <c r="B1019" t="n">
         <v>1</v>
@@ -42240,7 +42240,7 @@
     </row>
     <row r="1020">
       <c r="A1020" t="n">
-        <v>1937</v>
+        <v>1019</v>
       </c>
       <c r="B1020" t="n">
         <v>1</v>
@@ -42281,7 +42281,7 @@
     </row>
     <row r="1021">
       <c r="A1021" t="n">
-        <v>1938</v>
+        <v>1020</v>
       </c>
       <c r="B1021" t="n">
         <v>1</v>
@@ -42322,7 +42322,7 @@
     </row>
     <row r="1022">
       <c r="A1022" t="n">
-        <v>1939</v>
+        <v>1021</v>
       </c>
       <c r="B1022" t="n">
         <v>1</v>
@@ -42363,7 +42363,7 @@
     </row>
     <row r="1023">
       <c r="A1023" t="n">
-        <v>1940</v>
+        <v>1022</v>
       </c>
       <c r="B1023" t="n">
         <v>1</v>
@@ -42404,7 +42404,7 @@
     </row>
     <row r="1024">
       <c r="A1024" t="n">
-        <v>1941</v>
+        <v>1023</v>
       </c>
       <c r="B1024" t="n">
         <v>1</v>
@@ -42445,7 +42445,7 @@
     </row>
     <row r="1025">
       <c r="A1025" t="n">
-        <v>1942</v>
+        <v>1024</v>
       </c>
       <c r="B1025" t="n">
         <v>1</v>
@@ -42486,7 +42486,7 @@
     </row>
     <row r="1026">
       <c r="A1026" t="n">
-        <v>1943</v>
+        <v>1025</v>
       </c>
       <c r="B1026" t="n">
         <v>1</v>
@@ -42527,7 +42527,7 @@
     </row>
     <row r="1027">
       <c r="A1027" t="n">
-        <v>1944</v>
+        <v>1026</v>
       </c>
       <c r="B1027" t="n">
         <v>1</v>
@@ -42568,7 +42568,7 @@
     </row>
     <row r="1028">
       <c r="A1028" t="n">
-        <v>1999</v>
+        <v>1027</v>
       </c>
       <c r="B1028" t="n">
         <v>1</v>
@@ -42609,7 +42609,7 @@
     </row>
     <row r="1029">
       <c r="A1029" t="n">
-        <v>2000</v>
+        <v>1028</v>
       </c>
       <c r="B1029" t="n">
         <v>1</v>
@@ -42650,7 +42650,7 @@
     </row>
     <row r="1030">
       <c r="A1030" t="n">
-        <v>2001</v>
+        <v>1029</v>
       </c>
       <c r="B1030" t="n">
         <v>1</v>
@@ -42691,7 +42691,7 @@
     </row>
     <row r="1031">
       <c r="A1031" t="n">
-        <v>2002</v>
+        <v>1030</v>
       </c>
       <c r="B1031" t="n">
         <v>1</v>
@@ -42732,7 +42732,7 @@
     </row>
     <row r="1032">
       <c r="A1032" t="n">
-        <v>2003</v>
+        <v>1031</v>
       </c>
       <c r="B1032" t="n">
         <v>1</v>
@@ -42773,7 +42773,7 @@
     </row>
     <row r="1033">
       <c r="A1033" t="n">
-        <v>2004</v>
+        <v>1032</v>
       </c>
       <c r="B1033" t="n">
         <v>1</v>
@@ -42814,7 +42814,7 @@
     </row>
     <row r="1034">
       <c r="A1034" t="n">
-        <v>2005</v>
+        <v>1033</v>
       </c>
       <c r="B1034" t="n">
         <v>1</v>
@@ -42855,7 +42855,7 @@
     </row>
     <row r="1035">
       <c r="A1035" t="n">
-        <v>2006</v>
+        <v>1034</v>
       </c>
       <c r="B1035" t="n">
         <v>1</v>
@@ -42896,7 +42896,7 @@
     </row>
     <row r="1036">
       <c r="A1036" t="n">
-        <v>2007</v>
+        <v>1035</v>
       </c>
       <c r="B1036" t="n">
         <v>1</v>
@@ -42937,7 +42937,7 @@
     </row>
     <row r="1037">
       <c r="A1037" t="n">
-        <v>2008</v>
+        <v>1036</v>
       </c>
       <c r="B1037" t="n">
         <v>1</v>
@@ -42978,7 +42978,7 @@
     </row>
     <row r="1038">
       <c r="A1038" t="n">
-        <v>2009</v>
+        <v>1037</v>
       </c>
       <c r="B1038" t="n">
         <v>1</v>
@@ -43019,7 +43019,7 @@
     </row>
     <row r="1039">
       <c r="A1039" t="n">
-        <v>2010</v>
+        <v>1038</v>
       </c>
       <c r="B1039" t="n">
         <v>1</v>
@@ -43060,7 +43060,7 @@
     </row>
     <row r="1040">
       <c r="A1040" t="n">
-        <v>2011</v>
+        <v>1039</v>
       </c>
       <c r="B1040" t="n">
         <v>1</v>
@@ -43101,7 +43101,7 @@
     </row>
     <row r="1041">
       <c r="A1041" t="n">
-        <v>2012</v>
+        <v>1040</v>
       </c>
       <c r="B1041" t="n">
         <v>1</v>
@@ -43142,7 +43142,7 @@
     </row>
     <row r="1042">
       <c r="A1042" t="n">
-        <v>2013</v>
+        <v>1041</v>
       </c>
       <c r="B1042" t="n">
         <v>1</v>
@@ -43183,7 +43183,7 @@
     </row>
     <row r="1043">
       <c r="A1043" t="n">
-        <v>2014</v>
+        <v>1042</v>
       </c>
       <c r="B1043" t="n">
         <v>1</v>
@@ -43224,7 +43224,7 @@
     </row>
     <row r="1044">
       <c r="A1044" t="n">
-        <v>2015</v>
+        <v>1043</v>
       </c>
       <c r="B1044" t="n">
         <v>1</v>
@@ -43265,7 +43265,7 @@
     </row>
     <row r="1045">
       <c r="A1045" t="n">
-        <v>2016</v>
+        <v>1044</v>
       </c>
       <c r="B1045" t="n">
         <v>1</v>
@@ -43306,7 +43306,7 @@
     </row>
     <row r="1046">
       <c r="A1046" t="n">
-        <v>2071</v>
+        <v>1045</v>
       </c>
       <c r="B1046" t="n">
         <v>1</v>
@@ -43347,7 +43347,7 @@
     </row>
     <row r="1047">
       <c r="A1047" t="n">
-        <v>2072</v>
+        <v>1046</v>
       </c>
       <c r="B1047" t="n">
         <v>1</v>
@@ -43388,7 +43388,7 @@
     </row>
     <row r="1048">
       <c r="A1048" t="n">
-        <v>2073</v>
+        <v>1047</v>
       </c>
       <c r="B1048" t="n">
         <v>1</v>
@@ -43429,7 +43429,7 @@
     </row>
     <row r="1049">
       <c r="A1049" t="n">
-        <v>2074</v>
+        <v>1048</v>
       </c>
       <c r="B1049" t="n">
         <v>1</v>
@@ -43470,7 +43470,7 @@
     </row>
     <row r="1050">
       <c r="A1050" t="n">
-        <v>2075</v>
+        <v>1049</v>
       </c>
       <c r="B1050" t="n">
         <v>1</v>
@@ -43511,7 +43511,7 @@
     </row>
     <row r="1051">
       <c r="A1051" t="n">
-        <v>2076</v>
+        <v>1050</v>
       </c>
       <c r="B1051" t="n">
         <v>1</v>
@@ -43552,7 +43552,7 @@
     </row>
     <row r="1052">
       <c r="A1052" t="n">
-        <v>2077</v>
+        <v>1051</v>
       </c>
       <c r="B1052" t="n">
         <v>1</v>
@@ -43593,7 +43593,7 @@
     </row>
     <row r="1053">
       <c r="A1053" t="n">
-        <v>2078</v>
+        <v>1052</v>
       </c>
       <c r="B1053" t="n">
         <v>1</v>
@@ -43634,7 +43634,7 @@
     </row>
     <row r="1054">
       <c r="A1054" t="n">
-        <v>2079</v>
+        <v>1053</v>
       </c>
       <c r="B1054" t="n">
         <v>1</v>
@@ -43675,7 +43675,7 @@
     </row>
     <row r="1055">
       <c r="A1055" t="n">
-        <v>2080</v>
+        <v>1054</v>
       </c>
       <c r="B1055" t="n">
         <v>1</v>
@@ -43716,7 +43716,7 @@
     </row>
     <row r="1056">
       <c r="A1056" t="n">
-        <v>2081</v>
+        <v>1055</v>
       </c>
       <c r="B1056" t="n">
         <v>1</v>
@@ -43757,7 +43757,7 @@
     </row>
     <row r="1057">
       <c r="A1057" t="n">
-        <v>2082</v>
+        <v>1056</v>
       </c>
       <c r="B1057" t="n">
         <v>1</v>
@@ -43798,7 +43798,7 @@
     </row>
     <row r="1058">
       <c r="A1058" t="n">
-        <v>2083</v>
+        <v>1057</v>
       </c>
       <c r="B1058" t="n">
         <v>1</v>
@@ -43839,7 +43839,7 @@
     </row>
     <row r="1059">
       <c r="A1059" t="n">
-        <v>2084</v>
+        <v>1058</v>
       </c>
       <c r="B1059" t="n">
         <v>1</v>
@@ -43880,7 +43880,7 @@
     </row>
     <row r="1060">
       <c r="A1060" t="n">
-        <v>2085</v>
+        <v>1059</v>
       </c>
       <c r="B1060" t="n">
         <v>1</v>
@@ -43921,7 +43921,7 @@
     </row>
     <row r="1061">
       <c r="A1061" t="n">
-        <v>2086</v>
+        <v>1060</v>
       </c>
       <c r="B1061" t="n">
         <v>1</v>
@@ -43962,7 +43962,7 @@
     </row>
     <row r="1062">
       <c r="A1062" t="n">
-        <v>2087</v>
+        <v>1061</v>
       </c>
       <c r="B1062" t="n">
         <v>1</v>
@@ -44003,7 +44003,7 @@
     </row>
     <row r="1063">
       <c r="A1063" t="n">
-        <v>2088</v>
+        <v>1062</v>
       </c>
       <c r="B1063" t="n">
         <v>1</v>
@@ -44044,7 +44044,7 @@
     </row>
     <row r="1064">
       <c r="A1064" t="n">
-        <v>2143</v>
+        <v>1063</v>
       </c>
       <c r="B1064" t="n">
         <v>1</v>
@@ -44085,7 +44085,7 @@
     </row>
     <row r="1065">
       <c r="A1065" t="n">
-        <v>2144</v>
+        <v>1064</v>
       </c>
       <c r="B1065" t="n">
         <v>1</v>
@@ -44126,7 +44126,7 @@
     </row>
     <row r="1066">
       <c r="A1066" t="n">
-        <v>2145</v>
+        <v>1065</v>
       </c>
       <c r="B1066" t="n">
         <v>1</v>
@@ -44167,7 +44167,7 @@
     </row>
     <row r="1067">
       <c r="A1067" t="n">
-        <v>2146</v>
+        <v>1066</v>
       </c>
       <c r="B1067" t="n">
         <v>1</v>
@@ -44208,7 +44208,7 @@
     </row>
     <row r="1068">
       <c r="A1068" t="n">
-        <v>2147</v>
+        <v>1067</v>
       </c>
       <c r="B1068" t="n">
         <v>1</v>
@@ -44249,7 +44249,7 @@
     </row>
     <row r="1069">
       <c r="A1069" t="n">
-        <v>2148</v>
+        <v>1068</v>
       </c>
       <c r="B1069" t="n">
         <v>1</v>
@@ -44290,7 +44290,7 @@
     </row>
     <row r="1070">
       <c r="A1070" t="n">
-        <v>2149</v>
+        <v>1069</v>
       </c>
       <c r="B1070" t="n">
         <v>1</v>
@@ -44331,7 +44331,7 @@
     </row>
     <row r="1071">
       <c r="A1071" t="n">
-        <v>2150</v>
+        <v>1070</v>
       </c>
       <c r="B1071" t="n">
         <v>1</v>
@@ -44372,7 +44372,7 @@
     </row>
     <row r="1072">
       <c r="A1072" t="n">
-        <v>2151</v>
+        <v>1071</v>
       </c>
       <c r="B1072" t="n">
         <v>1</v>
@@ -44413,7 +44413,7 @@
     </row>
     <row r="1073">
       <c r="A1073" t="n">
-        <v>2152</v>
+        <v>1072</v>
       </c>
       <c r="B1073" t="n">
         <v>1</v>
@@ -44454,7 +44454,7 @@
     </row>
     <row r="1074">
       <c r="A1074" t="n">
-        <v>2153</v>
+        <v>1073</v>
       </c>
       <c r="B1074" t="n">
         <v>1</v>
@@ -44495,7 +44495,7 @@
     </row>
     <row r="1075">
       <c r="A1075" t="n">
-        <v>2154</v>
+        <v>1074</v>
       </c>
       <c r="B1075" t="n">
         <v>1</v>
@@ -44536,7 +44536,7 @@
     </row>
     <row r="1076">
       <c r="A1076" t="n">
-        <v>2155</v>
+        <v>1075</v>
       </c>
       <c r="B1076" t="n">
         <v>1</v>
@@ -44577,7 +44577,7 @@
     </row>
     <row r="1077">
       <c r="A1077" t="n">
-        <v>2156</v>
+        <v>1076</v>
       </c>
       <c r="B1077" t="n">
         <v>1</v>
@@ -44618,7 +44618,7 @@
     </row>
     <row r="1078">
       <c r="A1078" t="n">
-        <v>2157</v>
+        <v>1077</v>
       </c>
       <c r="B1078" t="n">
         <v>1</v>
@@ -44659,7 +44659,7 @@
     </row>
     <row r="1079">
       <c r="A1079" t="n">
-        <v>2158</v>
+        <v>1078</v>
       </c>
       <c r="B1079" t="n">
         <v>1</v>
@@ -44700,7 +44700,7 @@
     </row>
     <row r="1080">
       <c r="A1080" t="n">
-        <v>2159</v>
+        <v>1079</v>
       </c>
       <c r="B1080" t="n">
         <v>1</v>
@@ -44741,7 +44741,7 @@
     </row>
     <row r="1081">
       <c r="A1081" t="n">
-        <v>2160</v>
+        <v>1080</v>
       </c>
       <c r="B1081" t="n">
         <v>1</v>
